--- a/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
+++ b/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
@@ -75,11 +75,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LON_TYP_ENUM" sheetId="66" state="visible" r:id="rId66"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_CNTRL_ENUM" sheetId="67" state="visible" r:id="rId67"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_ENUM" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_ASSET_ENUM" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_LIAB_ENUM" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFT_TYP_ENUM" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_ESA_TYP_ENUM" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_FND_RDMPTN_FRQNCY_ENUM" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTHER_RDMPTN_FRQNCY_ENUM" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_ASSET_ENUM" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_LIAB_ENUM" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFT_TYP_ENUM" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_ESA_TYP_ENUM" sheetId="73" state="visible" r:id="rId73"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_TYP_ENUM" sheetId="74" state="visible" r:id="rId74"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOURCE_TYPE_ENUM" sheetId="75" state="visible" r:id="rId75"/>
   </sheets>
@@ -108,7 +108,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="52" hidden="1">'FND_GGRPHCL_FCS_ENUM'!$A$1:$C$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="53" hidden="1">'FND_GRN_TYP_ENUM'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="54" hidden="1">'FND_INVSTMNT_PLCY_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="55" hidden="1">'FND_INVSTR_TYP_ENUM'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="55" hidden="1">'FND_INVSTR_TYP_ENUM'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="56" hidden="1">'FND_LGL_TYP_ENUM'!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="57" hidden="1">'FND_RL_ESTT_TYP_ENUM'!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="58" hidden="1">'FND_STRTGY_ENUM'!$A$1:$C$5</definedName>
@@ -121,11 +121,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="65" hidden="1">'LON_TYP_ENUM'!$A$1:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">'ORG_INSTTTNL_SCTR_CNTRL_ENUM'!$A$1:$C$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="67" hidden="1">'ORG_INSTTTNL_SCTR_ENUM'!$A$1:$C$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="68" hidden="1">'REM_ASSET_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="69" hidden="1">'REM_LIAB_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">'SFT_TYP_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="71" hidden="1">'SHR_ESA_TYP_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="72" hidden="1">'SHR_FND_RDMPTN_FRQNCY_ENUM'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="68" hidden="1">'OTHER_RDMPTN_FRQNCY_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="69" hidden="1">'REM_ASSET_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">'REM_LIAB_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="71" hidden="1">'SFT_TYP_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="72" hidden="1">'SHR_ESA_TYP_ENUM'!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="73" hidden="1">'SHR_TYP_ENUM'!$A$1:$C$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">'SOURCE_TYPE_ENUM'!$A$1:$C$7</definedName>
   </definedNames>
@@ -147,7 +147,7 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00cb4b16"/>
+      <color rgb="00268bd2"/>
       <sz val="44"/>
     </font>
     <font>
@@ -319,7 +319,7 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Fill2_FontOrange_Size14" xfId="1" hidden="0"/>
+    <cellStyle name="Fill2_FontBlue_Size44" xfId="1" hidden="0"/>
     <cellStyle name="Fill02_FontCyan_Size14" xfId="2" hidden="0"/>
     <cellStyle name="Fill3_FontCyan_Size12" xfId="3" hidden="0"/>
     <cellStyle name="Fill2_FontCyan_Size12" xfId="4" hidden="0"/>
@@ -690,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C3:N20"/>
+  <dimension ref="C3:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +715,11 @@
       <c r="L3" s="1" t="n"/>
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="C4" s="1" t="n"/>
@@ -729,6 +734,11 @@
       <c r="L4" s="1" t="n"/>
       <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="n"/>
@@ -743,6 +753,11 @@
       <c r="L5" s="1" t="n"/>
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="C6" s="1" t="n"/>
@@ -757,6 +772,11 @@
       <c r="L6" s="1" t="n"/>
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="C7" s="1" t="n"/>
@@ -771,6 +791,11 @@
       <c r="L7" s="1" t="n"/>
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="C8" s="1" t="n"/>
@@ -785,6 +810,11 @@
       <c r="L8" s="1" t="n"/>
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="C9" s="1" t="n"/>
@@ -799,6 +829,11 @@
       <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="C10" s="1" t="n"/>
@@ -813,6 +848,11 @@
       <c r="L10" s="1" t="n"/>
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="C11" s="1" t="n"/>
@@ -827,6 +867,11 @@
       <c r="L11" s="1" t="n"/>
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="n"/>
+      <c r="S11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="C12" s="1" t="n"/>
@@ -841,6 +886,11 @@
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="n"/>
+      <c r="S12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="C13" s="1" t="n"/>
@@ -855,6 +905,11 @@
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="C14" s="1" t="n"/>
@@ -869,6 +924,11 @@
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="n"/>
+      <c r="S14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="C15" s="1" t="n"/>
@@ -883,6 +943,11 @@
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="n"/>
+      <c r="S15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="C16" s="1" t="n"/>
@@ -897,6 +962,11 @@
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="1" t="n"/>
@@ -911,6 +981,11 @@
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
+      <c r="S17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="1" t="n"/>
@@ -925,6 +1000,11 @@
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="n"/>
+      <c r="S18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="1" t="n"/>
@@ -939,6 +1019,11 @@
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
+      <c r="O19" s="1" t="n"/>
+      <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="n"/>
+      <c r="S19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="C20" s="1" t="n"/>
@@ -953,10 +1038,205 @@
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
+      <c r="O20" s="1" t="n"/>
+      <c r="P20" s="1" t="n"/>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
+      <c r="S20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="1" t="n"/>
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="n"/>
+      <c r="S21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
+      <c r="P22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="n"/>
+      <c r="S22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="n"/>
+      <c r="O23" s="1" t="n"/>
+      <c r="P23" s="1" t="n"/>
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="n"/>
+      <c r="S23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
+      <c r="O24" s="1" t="n"/>
+      <c r="P24" s="1" t="n"/>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="n"/>
+      <c r="S24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="n"/>
+      <c r="S25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
+      <c r="O26" s="1" t="n"/>
+      <c r="P26" s="1" t="n"/>
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="n"/>
+      <c r="S26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="n"/>
+      <c r="O27" s="1" t="n"/>
+      <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="n"/>
+      <c r="S27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n"/>
+      <c r="O28" s="1" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="n"/>
+      <c r="S28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
+      <c r="P29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
+      <c r="P30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="n"/>
+      <c r="S30" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:N20"/>
+    <mergeCell ref="C3:S30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9801,7 +10081,7 @@
       </c>
       <c r="E106" s="10" t="inlineStr">
         <is>
-          <t>SHR_FND_RDMPTN_FRQNCY_ENUM</t>
+          <t>OTHER_RDMPTN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F106" s="9" t="inlineStr">
@@ -11354,7 +11634,7 @@
       </c>
       <c r="B155" s="8" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>OAID</t>
         </is>
       </c>
       <c r="C155" s="9" t="inlineStr">
@@ -11578,7 +11858,7 @@
       </c>
       <c r="B162" s="5" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>OAID</t>
         </is>
       </c>
       <c r="C162" s="6" t="inlineStr">
@@ -11802,7 +12082,7 @@
       </c>
       <c r="B169" s="8" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>OAID</t>
         </is>
       </c>
       <c r="C169" s="9" t="inlineStr">
@@ -27812,7 +28092,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="22.1" customWidth="1" min="2" max="2"/>
+    <col width="55.9" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -27821,7 +28101,7 @@
         <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
         <v/>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -27838,7 +28118,7 @@
           <t>.</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Reset</t>
         </is>
@@ -27852,19 +28132,20 @@
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>GOV</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Government bond</t>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Εταιρικό ομόλογο</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            Bond funds that predominantly (more than 50%) invest in debt
-            securities issued by governments.
+            Τα εταιρικά ομόλογα (corporate bond funds) κατά κύριο λόγο (άνω του
+            50 %) επενδύουν σε χρεόγραφα έκδοσης χρηματοοικονομικών και μη
+            χρηματοοικονομικών εταιρειών.
             </t>
         </is>
       </c>
@@ -27872,19 +28153,19 @@
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Corporate bond</t>
+          <t>GOV</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>Κρατικό ομόλογο</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            Bond funds that predominantly (more than 50%) invest in debt
-            securities issued by financial and non-financial corporations.
+            Τα κρατικά ομόλογα (government bond funds) κατά κύριο λόγο (άνω του
+            50 %) επενδύουν σε χρεόγραφα έκδοσης κυβερνήσεων.
             </t>
         </is>
       </c>
@@ -27895,9 +28176,9 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Mix bond</t>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Μεικτό εταιρικό ομόλογο / κρατικό ομόλογο</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -27933,7 +28214,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="44.2" customWidth="1" min="2" max="2"/>
+    <col width="59.8" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -27978,14 +28259,15 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Distribution fund</t>
+          <t>Αμοιβαίο κεφάλαιο διανομής μερισμάτων</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            An investment fund which predominantly (more than 50%) pays out the income it
-            receives to its shareholders as cash.
+            Ως αμοιβαίο κεφάλαιο διανομής μερισμάτων (distribution fund)
+            νοείται ο ΕΟ ο οποίος κατά κύριο λόγο (άνω του 50 %) καταβάλλει
+            στους μετόχους του σε μετρητά το εισόδημα που εισπράττει.
             </t>
         </is>
       </c>
@@ -27998,14 +28280,15 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>Cumulative fund</t>
+          <t>Αμοιβαίο κεφάλαιο συσσώρευσης</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            A fund which predominantly (more than 50%) reinvests the income it receives in
-            accordance with its investment policy.
+            Ως αμοιβαίο κεφάλαιο συσσώρευσης (cumulative fund) νοείται ο ΕΟ ο
+            οποίος κατά κύριο λόγο (άνω του 50 %) επανεπενδύει το εισόδημα που
+            εισπράττει σύμφωνα με το επενδυτικό προϊόν του.
             </t>
         </is>
       </c>
@@ -28018,15 +28301,16 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Mixed dividend distribution fund</t>
+          <t>Μεικτό αμοιβαίο κεφάλαιο διανομής μερισμάτων</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            A fund which uses the income it receives both to pay out to its
-            shareholders as cash and to reinvest in accordance with its
-            investment policy.
+            Ως μεικτό αμοιβαίο κεφάλαιο διανομής μερισμάτων (mixed dividend
+            distribution fund) νοείται ο ΕΟ ο οποίος χρησιμοποιεί το εισόδημα
+            που εισπράττει για να το καταβάλει στους μετόχους του σε μετρητά
+            και για να το επανεπενδύσει σύμφωνα με το επενδυτικό προϊόν του.
             </t>
         </is>
       </c>
@@ -28055,7 +28339,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.1" customWidth="1" min="1" max="1"/>
-    <col width="37.7" customWidth="1" min="2" max="2"/>
+    <col width="20.8" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -28064,7 +28348,7 @@
         <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
         <v/>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -28081,7 +28365,7 @@
           <t>.</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Reset</t>
         </is>
@@ -28098,9 +28382,9 @@
           <t>OPEN</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Open-end investment funds</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Ανοιχτού τύπου</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -28119,9 +28403,9 @@
           <t>CLOSE</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>Closed-end investment funds</t>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Κλειστού τύπου</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
@@ -28158,7 +28442,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="32.5" customWidth="1" min="2" max="2"/>
+    <col width="58.5" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -28203,7 +28487,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Εσωτερικό</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -28222,7 +28506,7 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>Europe (EEA)</t>
+          <t>Ευρώπη [Ευρωπαικός Οικονομικός Χώρος (ΕΟΧ)]</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
@@ -28241,7 +28525,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Europe (other than EEA)</t>
+          <t>Ευρώπη (πλην του ΕΟΧ)</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -28260,7 +28544,7 @@
       </c>
       <c r="B6" s="14" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Βόρεια Αμερική</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -28279,7 +28563,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Νότια Αμερική</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
@@ -28298,7 +28582,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>Asia / Pacific</t>
+          <t>Ασία/Ειρηνικός</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
@@ -28317,7 +28601,7 @@
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Μέση Ανατολή</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -28336,7 +28620,7 @@
       </c>
       <c r="B10" s="14" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Αφρική</t>
         </is>
       </c>
       <c r="C10" s="14" t="inlineStr">
@@ -28356,7 +28640,7 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Υπερεθνική/πολλαπλή περιφέρεια</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
@@ -28517,7 +28801,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="28.6" customWidth="1" min="2" max="2"/>
+    <col width="54.6" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -28526,7 +28810,7 @@
         <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
         <v/>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -28543,7 +28827,7 @@
           <t>.</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Reset</t>
         </is>
@@ -28560,9 +28844,9 @@
           <t>MMF</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Money Market Funds</t>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Αμοιβαία κεφάλαια χρηματαγοράς</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -28583,9 +28867,9 @@
           <t>BON</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Bond Funds</t>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>Ομολογιακά αμοιβαία κεφάλαια</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
@@ -28602,9 +28886,9 @@
           <t>EQT</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Equity Funds</t>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Μετοχικά αμοιβαία κεφάλαια</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -28621,9 +28905,9 @@
           <t>MIX</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Mixed Funds</t>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>Μεικτά αμοιβαία κεφάλαια</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -28641,9 +28925,9 @@
           <t>RES</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Real Estate Funds</t>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>Αμοιβαία κεφάλαια ακίνητης περιουσίας</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
@@ -28661,9 +28945,9 @@
           <t>HED</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>Hedge Funds</t>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>Αμοιβαία κεφάλαια αντιστάθμισης κινδύνων</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
@@ -28690,9 +28974,9 @@
           <t>LOA</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Loan / credit Funds</t>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>Δανειακά/πιστωτικά αμοιβαία κεφάλαια</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -28709,9 +28993,9 @@
           <t>COM</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Commodity Funds</t>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>Αμοιβαία κεφάλαια εμπορευμάτων</t>
         </is>
       </c>
       <c r="C10" s="14" t="inlineStr">
@@ -28728,9 +29012,9 @@
           <t>INF</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Infrastructure Funds</t>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>Αμοιβαία κεφάλαια υποδομών</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
@@ -28755,9 +29039,9 @@
           <t>OTH</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>Other Funds</t>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Λοιπά αμοιβαία κεφάλαια</t>
         </is>
       </c>
       <c r="C12" s="14" t="inlineStr">
@@ -28782,7 +29066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -28794,7 +29078,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="27.3" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -28803,7 +29087,7 @@
         <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
         <v/>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -28820,7 +29104,7 @@
           <t>.</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Reset</t>
         </is>
@@ -28837,17 +29121,17 @@
           <t>PRF</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Professional client</t>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Κατεξοχήν επαγγελματίες επενδυτές</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            An investment fund in which the holders are predominantly (more than 50%)
-            `professional clients`.  Professional client means a client who
-            meets the criteria laid down in Annex II to Directive 2014/65/EU.
+            Ως «επαγγελματίας επενδυτής» νοείται οντότητα που πληροί τα
+            κριτήρια του επαγγελματία πελάτη κατά το παράρτημα II της οδηγίας
+            2014/65/ΕΕ.
             </t>
         </is>
       </c>
@@ -28858,23 +29142,40 @@
           <t>RTL</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Retail client</t>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>Κατεξοχήν ιδιώτες επενδυτές</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            An investment fund in which the holders are predominantly (more than 50%) `retail
-            clients`.  Retail client means a client who is not a professional
-            client as defined above.
+            Ως «ιδιώτης επενδυτής» νοείται πελάτης που δεν είναι «επαγγελματίας επενδυτής».
             </t>
         </is>
       </c>
     </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>ΜΙΧ</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Συνδυασμός επαγγελματιών και ιδιωτών επενδυτών</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Συνδυασμός των παραπάνω δύο κατηγοριών επενδυτών.
+            </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -28942,15 +29243,14 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Undertakings for Collective Investments in Transferable Securities (UCITS)</t>
+          <t>Συμμορφούμενος με την οδηγία για τους ΟΣΕΚΑ</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            UCITS means investment funds that have been established in
-            accordance with Directive 2009/65/EC of the European Parliament and
-            of the Council
+            Οι οργανισμοί συλλογικών επενδύσεων σε κινητές αξίες (ΟΣΕΚΑ) είναι
+            ΕΟ που έχουν συσταθεί σύμφωνα με την οδηγία 2009/65/ΕΚ.
             </t>
         </is>
       </c>
@@ -28963,17 +29263,15 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>Retail Investor Alternative Investment Fund</t>
+          <t>Συμμορφούμενος με την οδηγία για τους ΟΕΕ με ιδιώτες επενδυτές</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            Retail Investor Alternative Investment Fund means investment fund
-            as defined in Article 4(1) of Directive 2011/61/EU (AIFMD) which
-            has received authorization to be marketed to retail investors in
-            accordance with Article 43 of Directive 2011/61/EU of the European
-            Parliament and of the Council.
+            ΕΟ που έχουν συσταθεί σύμφωνα με την οδηγία 2011/61/ΕΕ οι οποίοι
+            δεν είναι εταιρείς επενδύσεων σε ακίνητα και απευθύνονται σε
+            ιδιώτες επενδυτές.
             </t>
         </is>
       </c>
@@ -28986,17 +29284,15 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Other Alternative Investment Fund</t>
+          <t>Συμμορφούμενος με την οδηγία για τους ΟΕΕ με θεσμικούς επενδυτές</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            Other Alternative Investment Fund means investment fund as defined
-            in Article 4(1) of Directive 2011/61/EU (AIFMD) which has not
-            received authorization to be marketed to retail investors in
-            accordance with Article 43 of Directive 2011/61/EU of the European
-            Parliament and of the Council.
+            ΕΟ που έχουν συσταθεί σύμφωνα με την οδηγία 2011/61/ΕΕ οι οποίοι
+            δεν είναι εταιρείς επενδύσεων σε ακίνητα και απευθύνονται σε
+            θεσμικούς επενδυτές.
             </t>
         </is>
       </c>
@@ -29009,7 +29305,7 @@
       </c>
       <c r="B6" s="14" t="inlineStr">
         <is>
-          <t>Real Estate Investment Trust</t>
+          <t>Εταιρεία επενδύσεων σε ακίνητα</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -29031,13 +29327,13 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ΕΟ μη συμμορφούμενος με κάποια από τις προηγούμενες κατηγορίες</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-            Investment fund that is not UCITS, RAIF, OAIF or REIT.
+            ΕΟ που δεν ανήκουν σε μία από τις παραπάνω κατηγορίες.
             </t>
         </is>
       </c>
@@ -29228,7 +29524,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.4" customWidth="1" min="1" max="1"/>
-    <col width="24.7" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -29273,7 +29569,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Ενεργητική</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -29295,7 +29591,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>Passive synthetic</t>
+          <t>Παθητική συνθετική</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
@@ -29317,7 +29613,7 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Passive physical</t>
+          <t>Παθητική φυσική</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -77691,7 +77987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -77702,8 +77998,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="14.3" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -77712,7 +78008,7 @@
         <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
         <v/>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -77729,7 +78025,7 @@
           <t>.</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Reset</t>
         </is>
@@ -77743,90 +78039,157 @@
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>AI_DPST</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Accrued interest receivable on deposits</t>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>Accrued interest receivable on deposits</t>
+          <t xml:space="preserve">
+            Daily redemption
+            </t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>AI_LN</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>Accrued interest receivable on loans</t>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>Accrued interest receivable on loans</t>
+          <t xml:space="preserve">
+            Weekly redemption
+            </t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>AI_DBT</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Accrued interest receivable on debt securities</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>Accrued interest receivable on debt securities</t>
+          <t xml:space="preserve">
+            Monthly redemption
+            </t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>Accrued rent receivable</t>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
-          <t>Accrued rent receivable</t>
+          <t xml:space="preserve">
+            Quarterly redemption
+            </t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>OTR</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>Other remaining assets not due to accrued interest or accured rent</t>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>Other remaining assets not due to accrued interest or accured rent</t>
+          <t xml:space="preserve">
+            Biannual redemption
+            </t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Yearly redemption
+            </t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            At the end of maturity redemption 
+            </t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Other/irregular redemption frequency schedule 
+            </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -78375,6 +78738,152 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.7" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="2">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
+        <v/>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>Reset</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>Reset value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>AI_DPST</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Accrued interest receivable on deposits</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>Accrued interest receivable on deposits</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>AI_LN</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>Accrued interest receivable on loans</t>
+        </is>
+      </c>
+      <c r="C4" s="14" t="inlineStr">
+        <is>
+          <t>Accrued interest receivable on loans</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>AI_DBT</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Accrued interest receivable on debt securities</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Accrued interest receivable on debt securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>Accrued rent receivable</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>Accrued rent receivable</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>OTR</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>Other remaining assets not due to accrued interest or accured rent</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Other remaining assets not due to accrued interest or accured rent</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C7"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78605,7 +79114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78775,7 +79284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78917,271 +79426,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C7"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5.2" customWidth="1" min="1" max="1"/>
-    <col width="9.1" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="2">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
-        <v/>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="36" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>Reset</t>
-        </is>
-      </c>
-      <c r="C2" s="14" t="inlineStr">
-        <is>
-          <t>Reset value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PERPETUAL </t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANNUAL </t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="36" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMI-ANNUAL </t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>QU</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>QU</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">QUARTERLY </t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MONTHLY </t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BIANNUALLY </t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="36" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
-        <is>
-          <t>OTHER REQULAR TIMING</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="36" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>IR</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>IR</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IRREGULAR </t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="36" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>SS</t>
-        </is>
-      </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>SS</t>
-        </is>
-      </c>
-      <c r="C11" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SPECIFIC SCHEDULE </t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="36" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="C12" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ONE TIME ONLY </t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="36" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="C13" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EVENT-LINKED </t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="36" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="C14" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
+++ b/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
@@ -29,105 +29,104 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU128" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIF6" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIF20" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU31" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR128" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU64" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFT" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DER" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU12" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST_NN_FNNCL_ENUM" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL_ENUM" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_FRQNCY_ENUM" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_TYP_ENUM" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CVRD_TYP_ENUM" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_GRNT_LVL_ENUM" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_OUTSTNDNG_CHN_TYP_ENUM" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_RNK_LVL_ENUM" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_SCRTY_LVL_ENUM" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_SCRTZN_TYP_ENUM" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_STTS_ENUM" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_TYP_ENUM" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_NTC_ENUM" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_TYP_ENUM" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRVTV_TYP_ENUM" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_CSTM_FRQNCY_ENUM" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_TYP_ENUM" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_BND_FCS_ENUM" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_DSTRBTN_PLCY_ENUM" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_EQTY_TYP_ENUM" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GGRPHCL_FCS_ENUM" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GRN_TYP_ENUM" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTMNT_PLCY_ENUM" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTR_TYP_ENUM" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_LGL_TYP_ENUM" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_RL_ESTT_TYP_ENUM" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_STRTGY_ENUM" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CNTRY_ENUM" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CRRNCY_ENUM" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_FRQNCY_ENUM" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_MRKT_ENUM" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_EXPNS_ENUM" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_RVN_ENUM" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LON_TYP_ENUM" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_CNTRL_ENUM" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_ENUM" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTHER_RDMPTN_FRQNCY_ENUM" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_ASSET_ENUM" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_LIAB_ENUM" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFT_TYP_ENUM" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_ESA_TYP_ENUM" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_TYP_ENUM" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOURCE_TYPE_ENUM" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU31" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR128" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU64" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFT" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DER" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU12" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST_NN_FNNCL_ENUM" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL_ENUM" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_FRQNCY_ENUM" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_TYP_ENUM" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CVRD_TYP_ENUM" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_GRNT_LVL_ENUM" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_OUTSTNDNG_CHN_TYP_ENUM" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_RNK_LVL_ENUM" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_SCRTY_LVL_ENUM" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_SCRTZN_TYP_ENUM" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_STTS_ENUM" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_TYP_ENUM" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_NTC_ENUM" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_TYP_ENUM" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRVTV_TYP_ENUM" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_CSTM_FRQNCY_ENUM" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_TYP_ENUM" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_BND_FCS_ENUM" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_DSTRBTN_PLCY_ENUM" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_EQTY_TYP_ENUM" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GGRPHCL_FCS_ENUM" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GRN_TYP_ENUM" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTMNT_PLCY_ENUM" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTR_TYP_ENUM" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_LGL_TYP_ENUM" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_RL_ESTT_TYP_ENUM" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_STRTGY_ENUM" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CNTRY_ENUM" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CRRNCY_ENUM" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_FRQNCY_ENUM" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_MRKT_ENUM" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_EXPNS_ENUM" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_RVN_ENUM" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LON_TYP_ENUM" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_CNTRL_ENUM" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_ENUM" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTHER_RDMPTN_FRQNCY_ENUM" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_ASSET_ENUM" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_LIAB_ENUM" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFT_TYP_ENUM" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_ESA_TYP_ENUM" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_TYP_ENUM" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOURCE_TYPE_ENUM" sheetId="74" state="visible" r:id="rId74"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DATA_STRUCTURE'!$A$1:$F$297</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'ASST_NN_FNNCL_ENUM'!$A$1:$C$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'BOOL_ENUM'!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">'DBT_CPN_FRQNCY_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">'DBT_CPN_TYP_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">'DBT_CVRD_TYP_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">'DBT_GRNT_LVL_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">'DBT_OUTSTNDNG_CHN_TYP_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">'DBT_RNK_LVL_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">'DBT_SCRTY_LVL_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">'DBT_SCRTZN_TYP_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">'DBT_STTS_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">'DBT_TYP_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">'DEP_NTC_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">'DEP_TYP_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">'DRVTV_TYP_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">'DVDND_CSTM_FRQNCY_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="49" hidden="1">'FND_BND_FCS_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="50" hidden="1">'FND_DSTRBTN_PLCY_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="51" hidden="1">'FND_EQTY_TYP_ENUM'!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="52" hidden="1">'FND_GGRPHCL_FCS_ENUM'!$A$1:$C$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="53" hidden="1">'FND_GRN_TYP_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="54" hidden="1">'FND_INVSTMNT_PLCY_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="55" hidden="1">'FND_INVSTR_TYP_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="56" hidden="1">'FND_LGL_TYP_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="57" hidden="1">'FND_RL_ESTT_TYP_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="58" hidden="1">'FND_STRTGY_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">'GEN_CNTRY_ENUM'!$A$1:$C$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">'GEN_MRKT_ENUM'!$A$1:$C$2555</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">'INCM_EXPNS_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="64" hidden="1">'INCM_RVN_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="65" hidden="1">'LON_TYP_ENUM'!$A$1:$C$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">'ORG_INSTTTNL_SCTR_CNTRL_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="67" hidden="1">'ORG_INSTTTNL_SCTR_ENUM'!$A$1:$C$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="68" hidden="1">'OTHER_RDMPTN_FRQNCY_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="69" hidden="1">'REM_ASSET_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">'REM_LIAB_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="71" hidden="1">'SFT_TYP_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="72" hidden="1">'SHR_ESA_TYP_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="73" hidden="1">'SHR_TYP_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">'SOURCE_TYPE_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'ASST_NN_FNNCL_ENUM'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'BOOL_ENUM'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'DBT_CPN_FRQNCY_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">'DBT_CPN_TYP_ENUM'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">'DBT_CVRD_TYP_ENUM'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">'DBT_GRNT_LVL_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">'DBT_OUTSTNDNG_CHN_TYP_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">'DBT_RNK_LVL_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">'DBT_SCRTY_LVL_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">'DBT_SCRTZN_TYP_ENUM'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">'DBT_STTS_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">'DBT_TYP_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">'DEP_NTC_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">'DEP_TYP_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">'DRVTV_TYP_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">'DVDND_CSTM_FRQNCY_ENUM'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'FND_BND_FCS_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="49" hidden="1">'FND_DSTRBTN_PLCY_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="50" hidden="1">'FND_EQTY_TYP_ENUM'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="51" hidden="1">'FND_GGRPHCL_FCS_ENUM'!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="52" hidden="1">'FND_GRN_TYP_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="53" hidden="1">'FND_INVSTMNT_PLCY_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="54" hidden="1">'FND_INVSTR_TYP_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="55" hidden="1">'FND_LGL_TYP_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="56" hidden="1">'FND_RL_ESTT_TYP_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="57" hidden="1">'FND_STRTGY_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="58" hidden="1">'GEN_CNTRY_ENUM'!$A$1:$C$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">'GEN_MRKT_ENUM'!$A$1:$C$2555</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">'INCM_EXPNS_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">'INCM_RVN_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="64" hidden="1">'LON_TYP_ENUM'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="65" hidden="1">'ORG_INSTTTNL_SCTR_CNTRL_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">'ORG_INSTTTNL_SCTR_ENUM'!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="67" hidden="1">'OTHER_RDMPTN_FRQNCY_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="68" hidden="1">'REM_ASSET_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="69" hidden="1">'REM_LIAB_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">'SFT_TYP_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="71" hidden="1">'SHR_ESA_TYP_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="72" hidden="1">'SHR_TYP_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="73" hidden="1">'SOURCE_TYPE_ENUM'!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -147,7 +146,7 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00268bd2"/>
+      <color rgb="0093a1a1"/>
       <sz val="44"/>
     </font>
     <font>
@@ -199,17 +198,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8d5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00073642"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00fdf6e3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eee8d5"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,28 +246,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -277,49 +276,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Fill2_FontBlue_Size44" xfId="1" hidden="0"/>
+    <cellStyle name="Fill2_F1_Size44" xfId="1" hidden="0"/>
     <cellStyle name="Fill02_FontCyan_Size14" xfId="2" hidden="0"/>
     <cellStyle name="Fill3_FontCyan_Size12" xfId="3" hidden="0"/>
     <cellStyle name="Fill2_FontCyan_Size12" xfId="4" hidden="0"/>
@@ -10657,7 +10656,7 @@
       </c>
       <c r="E124" s="7" t="inlineStr">
         <is>
-          <t>ASCIIF20</t>
+          <t>ASCIIL20</t>
         </is>
       </c>
       <c r="F124" s="6" t="inlineStr">
@@ -14226,7 +14225,7 @@
       </c>
       <c r="B236" s="8" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C236" s="9" t="inlineStr">
@@ -14241,7 +14240,7 @@
       </c>
       <c r="E236" s="10" t="inlineStr">
         <is>
-          <t>ASST_NN_FNNCL_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F236" s="9" t="inlineStr">
@@ -14258,7 +14257,7 @@
       </c>
       <c r="B237" s="8" t="inlineStr">
         <is>
-          <t>CNTRY</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C237" s="9" t="inlineStr">
@@ -14273,7 +14272,7 @@
       </c>
       <c r="E237" s="10" t="inlineStr">
         <is>
-          <t>GEN_CNTRY_ENUM</t>
+          <t>ASST_NN_FNNCL_ENUM</t>
         </is>
       </c>
       <c r="F237" s="9" t="inlineStr">
@@ -14290,7 +14289,7 @@
       </c>
       <c r="B238" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CNTRY</t>
         </is>
       </c>
       <c r="C238" s="9" t="inlineStr">
@@ -14305,7 +14304,7 @@
       </c>
       <c r="E238" s="10" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>GEN_CNTRY_ENUM</t>
         </is>
       </c>
       <c r="F238" s="9" t="inlineStr">
@@ -14482,7 +14481,7 @@
       </c>
       <c r="B244" s="5" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C244" s="6" t="inlineStr">
@@ -14497,7 +14496,7 @@
       </c>
       <c r="E244" s="7" t="inlineStr">
         <is>
-          <t>REM_ASSET_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F244" s="6" t="inlineStr">
@@ -14514,7 +14513,7 @@
       </c>
       <c r="B245" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C245" s="6" t="inlineStr">
@@ -14529,7 +14528,7 @@
       </c>
       <c r="E245" s="7" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>REM_ASSET_ENUM</t>
         </is>
       </c>
       <c r="F245" s="6" t="inlineStr">
@@ -15314,7 +15313,7 @@
       </c>
       <c r="B270" s="5" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C270" s="6" t="inlineStr">
@@ -15329,7 +15328,7 @@
       </c>
       <c r="E270" s="7" t="inlineStr">
         <is>
-          <t>REM_LIAB_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F270" s="6" t="inlineStr">
@@ -15346,7 +15345,7 @@
       </c>
       <c r="B271" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C271" s="6" t="inlineStr">
@@ -15361,7 +15360,7 @@
       </c>
       <c r="E271" s="7" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>REM_LIAB_ENUM</t>
         </is>
       </c>
       <c r="F271" s="6" t="inlineStr">
@@ -18182,7 +18181,7 @@
           <t xml:space="preserve">
         type: string
         pattern: "^[a-zA-Z0-9_]+"
-        max_length: F20
+        max_length: U31
         </t>
         </is>
       </c>
@@ -18725,8 +18724,7 @@
         <is>
           <t xml:space="preserve">
         type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U31
+        max_length: 128
         </t>
         </is>
       </c>
@@ -19269,7 +19267,8 @@
         <is>
           <t xml:space="preserve">
         type: string
-        max_length: 128
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: U64
         </t>
         </is>
       </c>
@@ -19811,10 +19810,18 @@
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U64
-        </t>
+    Identification code of a deposit account.
+    type = string
+    pattern = r"^(I[A-Z]{2}[0-9]{2}[A-Z0-9]{4}[A-Z0-9]{1,30})|(P[A-Za-z0-9@$-]+_[!-~]+)|(_[A-Z]{3}_E[A-Za-z0-9_@$-][!-~]*)$"
+    max_length = 32
+    The first available from the list below that
+    satisfies the constraints above is to be used to identify a deposit:
+    * The IBAN deposit Identifier (IBAN_ID) constructed as "I{IBAN_ID}".
+    * Private Identifier Code (PRIVATE_ID) constructed as
+      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
+    * A composite identifier code that is used to identify aggregate deposits
+    and starts with the _ prefix constructed as "_{CCC}_{RA_ID}" where CCC stands for the currency code.
+    </t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -20355,17 +20362,12 @@
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Identification code of a deposit account.
+    Identification code of a security financial transaction.
     type = string
-    pattern = r"^(I[A-Z]{2}[0-9]{2}[A-Z0-9]{4}[A-Z0-9]{1,30})|(P[A-Za-z0-9@$-]+_[!-~]+)|(_[A-Z]{3}_E[A-Za-z0-9_@$-][!-~]*)$"
-    max_length = 32
-    The first available from the list below that
-    satisfies the constraints above is to be used to identify a deposit:
-    * The IBAN deposit Identifier (IBAN_ID) constructed as "I{IBAN_ID}".
-    * Private Identifier Code (PRIVATE_ID) constructed as
-      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
-    * A composite identifier code that is used to identify aggregate deposits
-    and starts with the _ prefix constructed as "_{CCC}_{RA_ID}" where CCC stands for the currency code.
+    pattern = r"^PE[A-Za-z0-9@$-]+_[!-~]+$"
+    max_length = 51
+    SFT identification code should be constructed as "P{RA_ID}_{PRIVATE_ID}``
+    where RA_ID is the ESCB_ID of the RA.
     </t>
         </is>
       </c>
@@ -20907,12 +20909,15 @@
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Identification code of a security financial transaction.
+    Identification code of a financial derivative.
     type = string
-    pattern = r"^PE[A-Za-z0-9@$-]+_[!-~]+$"
+    pattern = r"^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|(PE[A-Za-z0-9@$-]+_[!-~]+)$"
     max_length = 51
-    SFT identification code should be constructed as "P{RA_ID}_{PRIVATE_ID}``
-    where RA_ID is the ESCB_ID of the RA.
+    The first available from the list below that satisfies the constraints
+    above is to be used to identify a financial derivative:
+    * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
+    * Private Identifier Code (PRIVATE_ID) constructed as
+      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
     </t>
         </is>
       </c>
@@ -21454,16 +21459,10 @@
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Identification code of a financial derivative.
-    type = string
-    pattern = r"^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|(PE[A-Za-z0-9@$-]+_[!-~]+)$"
-    max_length = 51
-    The first available from the list below that satisfies the constraints
-    above is to be used to identify a financial derivative:
-    * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
-    * Private Identifier Code (PRIVATE_ID) constructed as
-      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
-    </t>
+        type: string
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: U12
+        </t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -22006,6 +22005,7 @@
           <t xml:space="preserve">
     Identifier code of an organisation unit.
     type = string
+    pattern=r"^([ETB][A-Za-z0-9_@$-][!-~]*)|(L[0-9]{4}[0]{2}[A-Z0-9]{12}[0-9]{2})|(P[A-Za-z0-9@$-]+_[!-~]+)$"
     pattern = r"^[ELTBP][A-Za-z0-9_@$-][!-~]*$"
     max_length = 51
     For non-household organisation units the first available from the list that
@@ -22562,9 +22562,7 @@
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U12
+        type: bool
         </t>
         </is>
       </c>
@@ -23106,7 +23104,7 @@
       <c r="A2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: bool
+        type: ORG_
         </t>
         </is>
       </c>
@@ -23611,548 +23609,6 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: ORG_
-        </t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="13" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="13" t="n"/>
-      <c r="J3" s="13" t="n"/>
-      <c r="K3" s="13" t="n"/>
-      <c r="L3" s="13" t="n"/>
-      <c r="M3" s="13" t="n"/>
-      <c r="N3" s="13" t="n"/>
-      <c r="O3" s="13" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="13" t="n"/>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="13" t="n"/>
-      <c r="I4" s="13" t="n"/>
-      <c r="J4" s="13" t="n"/>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="13" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
-      <c r="I5" s="13" t="n"/>
-      <c r="J5" s="13" t="n"/>
-      <c r="K5" s="13" t="n"/>
-      <c r="L5" s="13" t="n"/>
-      <c r="M5" s="13" t="n"/>
-      <c r="N5" s="13" t="n"/>
-      <c r="O5" s="13" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n"/>
-      <c r="K6" s="13" t="n"/>
-      <c r="L6" s="13" t="n"/>
-      <c r="M6" s="13" t="n"/>
-      <c r="N6" s="13" t="n"/>
-      <c r="O6" s="13" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n"/>
-      <c r="K7" s="13" t="n"/>
-      <c r="L7" s="13" t="n"/>
-      <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="n"/>
-      <c r="O7" s="13" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
-      <c r="L8" s="13" t="n"/>
-      <c r="M8" s="13" t="n"/>
-      <c r="N8" s="13" t="n"/>
-      <c r="O8" s="13" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="13" t="n"/>
-      <c r="M9" s="13" t="n"/>
-      <c r="N9" s="13" t="n"/>
-      <c r="O9" s="13" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="13" t="n"/>
-      <c r="L10" s="13" t="n"/>
-      <c r="M10" s="13" t="n"/>
-      <c r="N10" s="13" t="n"/>
-      <c r="O10" s="13" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
-      <c r="L11" s="13" t="n"/>
-      <c r="M11" s="13" t="n"/>
-      <c r="N11" s="13" t="n"/>
-      <c r="O11" s="13" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="13" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n"/>
-      <c r="K12" s="13" t="n"/>
-      <c r="L12" s="13" t="n"/>
-      <c r="M12" s="13" t="n"/>
-      <c r="N12" s="13" t="n"/>
-      <c r="O12" s="13" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n"/>
-      <c r="K13" s="13" t="n"/>
-      <c r="L13" s="13" t="n"/>
-      <c r="M13" s="13" t="n"/>
-      <c r="N13" s="13" t="n"/>
-      <c r="O13" s="13" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n"/>
-      <c r="K14" s="13" t="n"/>
-      <c r="L14" s="13" t="n"/>
-      <c r="M14" s="13" t="n"/>
-      <c r="N14" s="13" t="n"/>
-      <c r="O14" s="13" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="13" t="n"/>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n"/>
-      <c r="K15" s="13" t="n"/>
-      <c r="L15" s="13" t="n"/>
-      <c r="M15" s="13" t="n"/>
-      <c r="N15" s="13" t="n"/>
-      <c r="O15" s="13" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="13" t="n"/>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n"/>
-      <c r="K16" s="13" t="n"/>
-      <c r="L16" s="13" t="n"/>
-      <c r="M16" s="13" t="n"/>
-      <c r="N16" s="13" t="n"/>
-      <c r="O16" s="13" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="13" t="n"/>
-      <c r="H17" s="13" t="n"/>
-      <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="n"/>
-      <c r="K17" s="13" t="n"/>
-      <c r="L17" s="13" t="n"/>
-      <c r="M17" s="13" t="n"/>
-      <c r="N17" s="13" t="n"/>
-      <c r="O17" s="13" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="13" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
-      <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="n"/>
-      <c r="N18" s="13" t="n"/>
-      <c r="O18" s="13" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
-      <c r="L19" s="13" t="n"/>
-      <c r="M19" s="13" t="n"/>
-      <c r="N19" s="13" t="n"/>
-      <c r="O19" s="13" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="13" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="13" t="n"/>
-      <c r="M20" s="13" t="n"/>
-      <c r="N20" s="13" t="n"/>
-      <c r="O20" s="13" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
-      <c r="L21" s="13" t="n"/>
-      <c r="M21" s="13" t="n"/>
-      <c r="N21" s="13" t="n"/>
-      <c r="O21" s="13" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="13" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
-      <c r="L22" s="13" t="n"/>
-      <c r="M22" s="13" t="n"/>
-      <c r="N22" s="13" t="n"/>
-      <c r="O22" s="13" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
-      <c r="L23" s="13" t="n"/>
-      <c r="M23" s="13" t="n"/>
-      <c r="N23" s="13" t="n"/>
-      <c r="O23" s="13" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="13" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="13" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
-      <c r="L24" s="13" t="n"/>
-      <c r="M24" s="13" t="n"/>
-      <c r="N24" s="13" t="n"/>
-      <c r="O24" s="13" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
-      <c r="L25" s="13" t="n"/>
-      <c r="M25" s="13" t="n"/>
-      <c r="N25" s="13" t="n"/>
-      <c r="O25" s="13" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="13" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
-      <c r="L26" s="13" t="n"/>
-      <c r="M26" s="13" t="n"/>
-      <c r="N26" s="13" t="n"/>
-      <c r="O26" s="13" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="n"/>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="13" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="13" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
-      <c r="L27" s="13" t="n"/>
-      <c r="M27" s="13" t="n"/>
-      <c r="N27" s="13" t="n"/>
-      <c r="O27" s="13" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="n"/>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="13" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="13" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="13" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
-      <c r="L28" s="13" t="n"/>
-      <c r="M28" s="13" t="n"/>
-      <c r="N28" s="13" t="n"/>
-      <c r="O28" s="13" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="13" t="n"/>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
-      <c r="G29" s="13" t="n"/>
-      <c r="H29" s="13" t="n"/>
-      <c r="I29" s="13" t="n"/>
-      <c r="J29" s="13" t="n"/>
-      <c r="K29" s="13" t="n"/>
-      <c r="L29" s="13" t="n"/>
-      <c r="M29" s="13" t="n"/>
-      <c r="N29" s="13" t="n"/>
-      <c r="O29" s="13" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="n"/>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="13" t="n"/>
-      <c r="H30" s="13" t="n"/>
-      <c r="I30" s="13" t="n"/>
-      <c r="J30" s="13" t="n"/>
-      <c r="K30" s="13" t="n"/>
-      <c r="L30" s="13" t="n"/>
-      <c r="M30" s="13" t="n"/>
-      <c r="N30" s="13" t="n"/>
-      <c r="O30" s="13" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24315,7 +23771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24410,7 +23866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24641,7 +24097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24821,7 +24277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25001,7 +24457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25130,7 +24586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25259,549 +24715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: datetime
-        </t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="13" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="13" t="n"/>
-      <c r="J3" s="13" t="n"/>
-      <c r="K3" s="13" t="n"/>
-      <c r="L3" s="13" t="n"/>
-      <c r="M3" s="13" t="n"/>
-      <c r="N3" s="13" t="n"/>
-      <c r="O3" s="13" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="13" t="n"/>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="13" t="n"/>
-      <c r="I4" s="13" t="n"/>
-      <c r="J4" s="13" t="n"/>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="13" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
-      <c r="I5" s="13" t="n"/>
-      <c r="J5" s="13" t="n"/>
-      <c r="K5" s="13" t="n"/>
-      <c r="L5" s="13" t="n"/>
-      <c r="M5" s="13" t="n"/>
-      <c r="N5" s="13" t="n"/>
-      <c r="O5" s="13" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n"/>
-      <c r="K6" s="13" t="n"/>
-      <c r="L6" s="13" t="n"/>
-      <c r="M6" s="13" t="n"/>
-      <c r="N6" s="13" t="n"/>
-      <c r="O6" s="13" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n"/>
-      <c r="K7" s="13" t="n"/>
-      <c r="L7" s="13" t="n"/>
-      <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="n"/>
-      <c r="O7" s="13" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
-      <c r="L8" s="13" t="n"/>
-      <c r="M8" s="13" t="n"/>
-      <c r="N8" s="13" t="n"/>
-      <c r="O8" s="13" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="13" t="n"/>
-      <c r="M9" s="13" t="n"/>
-      <c r="N9" s="13" t="n"/>
-      <c r="O9" s="13" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="13" t="n"/>
-      <c r="L10" s="13" t="n"/>
-      <c r="M10" s="13" t="n"/>
-      <c r="N10" s="13" t="n"/>
-      <c r="O10" s="13" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
-      <c r="L11" s="13" t="n"/>
-      <c r="M11" s="13" t="n"/>
-      <c r="N11" s="13" t="n"/>
-      <c r="O11" s="13" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="13" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n"/>
-      <c r="K12" s="13" t="n"/>
-      <c r="L12" s="13" t="n"/>
-      <c r="M12" s="13" t="n"/>
-      <c r="N12" s="13" t="n"/>
-      <c r="O12" s="13" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n"/>
-      <c r="K13" s="13" t="n"/>
-      <c r="L13" s="13" t="n"/>
-      <c r="M13" s="13" t="n"/>
-      <c r="N13" s="13" t="n"/>
-      <c r="O13" s="13" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n"/>
-      <c r="K14" s="13" t="n"/>
-      <c r="L14" s="13" t="n"/>
-      <c r="M14" s="13" t="n"/>
-      <c r="N14" s="13" t="n"/>
-      <c r="O14" s="13" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="13" t="n"/>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n"/>
-      <c r="K15" s="13" t="n"/>
-      <c r="L15" s="13" t="n"/>
-      <c r="M15" s="13" t="n"/>
-      <c r="N15" s="13" t="n"/>
-      <c r="O15" s="13" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="13" t="n"/>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n"/>
-      <c r="K16" s="13" t="n"/>
-      <c r="L16" s="13" t="n"/>
-      <c r="M16" s="13" t="n"/>
-      <c r="N16" s="13" t="n"/>
-      <c r="O16" s="13" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="13" t="n"/>
-      <c r="H17" s="13" t="n"/>
-      <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="n"/>
-      <c r="K17" s="13" t="n"/>
-      <c r="L17" s="13" t="n"/>
-      <c r="M17" s="13" t="n"/>
-      <c r="N17" s="13" t="n"/>
-      <c r="O17" s="13" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="13" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
-      <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="n"/>
-      <c r="N18" s="13" t="n"/>
-      <c r="O18" s="13" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
-      <c r="L19" s="13" t="n"/>
-      <c r="M19" s="13" t="n"/>
-      <c r="N19" s="13" t="n"/>
-      <c r="O19" s="13" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="13" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="13" t="n"/>
-      <c r="M20" s="13" t="n"/>
-      <c r="N20" s="13" t="n"/>
-      <c r="O20" s="13" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
-      <c r="L21" s="13" t="n"/>
-      <c r="M21" s="13" t="n"/>
-      <c r="N21" s="13" t="n"/>
-      <c r="O21" s="13" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="13" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
-      <c r="L22" s="13" t="n"/>
-      <c r="M22" s="13" t="n"/>
-      <c r="N22" s="13" t="n"/>
-      <c r="O22" s="13" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
-      <c r="L23" s="13" t="n"/>
-      <c r="M23" s="13" t="n"/>
-      <c r="N23" s="13" t="n"/>
-      <c r="O23" s="13" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="13" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="13" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
-      <c r="L24" s="13" t="n"/>
-      <c r="M24" s="13" t="n"/>
-      <c r="N24" s="13" t="n"/>
-      <c r="O24" s="13" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
-      <c r="L25" s="13" t="n"/>
-      <c r="M25" s="13" t="n"/>
-      <c r="N25" s="13" t="n"/>
-      <c r="O25" s="13" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="13" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
-      <c r="L26" s="13" t="n"/>
-      <c r="M26" s="13" t="n"/>
-      <c r="N26" s="13" t="n"/>
-      <c r="O26" s="13" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="n"/>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="13" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="13" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
-      <c r="L27" s="13" t="n"/>
-      <c r="M27" s="13" t="n"/>
-      <c r="N27" s="13" t="n"/>
-      <c r="O27" s="13" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="n"/>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="13" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="13" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="13" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
-      <c r="L28" s="13" t="n"/>
-      <c r="M28" s="13" t="n"/>
-      <c r="N28" s="13" t="n"/>
-      <c r="O28" s="13" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="13" t="n"/>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
-      <c r="G29" s="13" t="n"/>
-      <c r="H29" s="13" t="n"/>
-      <c r="I29" s="13" t="n"/>
-      <c r="J29" s="13" t="n"/>
-      <c r="K29" s="13" t="n"/>
-      <c r="L29" s="13" t="n"/>
-      <c r="M29" s="13" t="n"/>
-      <c r="N29" s="13" t="n"/>
-      <c r="O29" s="13" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="n"/>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="13" t="n"/>
-      <c r="H30" s="13" t="n"/>
-      <c r="I30" s="13" t="n"/>
-      <c r="J30" s="13" t="n"/>
-      <c r="K30" s="13" t="n"/>
-      <c r="L30" s="13" t="n"/>
-      <c r="M30" s="13" t="n"/>
-      <c r="N30" s="13" t="n"/>
-      <c r="O30" s="13" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25998,7 +24912,549 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="12">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="12" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: datetime
+        </t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="13" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="13" t="n"/>
+      <c r="F2" s="13" t="n"/>
+      <c r="G2" s="13" t="n"/>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="n"/>
+      <c r="J2" s="13" t="n"/>
+      <c r="K2" s="13" t="n"/>
+      <c r="L2" s="13" t="n"/>
+      <c r="M2" s="13" t="n"/>
+      <c r="N2" s="13" t="n"/>
+      <c r="O2" s="13" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="n"/>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
+      <c r="F3" s="13" t="n"/>
+      <c r="G3" s="13" t="n"/>
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="13" t="n"/>
+      <c r="J3" s="13" t="n"/>
+      <c r="K3" s="13" t="n"/>
+      <c r="L3" s="13" t="n"/>
+      <c r="M3" s="13" t="n"/>
+      <c r="N3" s="13" t="n"/>
+      <c r="O3" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="13" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="13" t="n"/>
+      <c r="I4" s="13" t="n"/>
+      <c r="J4" s="13" t="n"/>
+      <c r="K4" s="13" t="n"/>
+      <c r="L4" s="13" t="n"/>
+      <c r="M4" s="13" t="n"/>
+      <c r="N4" s="13" t="n"/>
+      <c r="O4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="13" t="n"/>
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="13" t="n"/>
+      <c r="M5" s="13" t="n"/>
+      <c r="N5" s="13" t="n"/>
+      <c r="O5" s="13" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="13" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="13" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="13" t="n"/>
+      <c r="M6" s="13" t="n"/>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="13" t="n"/>
+      <c r="M7" s="13" t="n"/>
+      <c r="N7" s="13" t="n"/>
+      <c r="O7" s="13" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="13" t="n"/>
+      <c r="M8" s="13" t="n"/>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="13" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="13" t="n"/>
+      <c r="M9" s="13" t="n"/>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="13" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="13" t="n"/>
+      <c r="M10" s="13" t="n"/>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="13" t="n"/>
+      <c r="M11" s="13" t="n"/>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="13" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="13" t="n"/>
+      <c r="M12" s="13" t="n"/>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="13" t="n"/>
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="13" t="n"/>
+      <c r="J13" s="13" t="n"/>
+      <c r="K13" s="13" t="n"/>
+      <c r="L13" s="13" t="n"/>
+      <c r="M13" s="13" t="n"/>
+      <c r="N13" s="13" t="n"/>
+      <c r="O13" s="13" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="13" t="n"/>
+      <c r="J14" s="13" t="n"/>
+      <c r="K14" s="13" t="n"/>
+      <c r="L14" s="13" t="n"/>
+      <c r="M14" s="13" t="n"/>
+      <c r="N14" s="13" t="n"/>
+      <c r="O14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="13" t="n"/>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="n"/>
+      <c r="J15" s="13" t="n"/>
+      <c r="K15" s="13" t="n"/>
+      <c r="L15" s="13" t="n"/>
+      <c r="M15" s="13" t="n"/>
+      <c r="N15" s="13" t="n"/>
+      <c r="O15" s="13" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
+      <c r="L16" s="13" t="n"/>
+      <c r="M16" s="13" t="n"/>
+      <c r="N16" s="13" t="n"/>
+      <c r="O16" s="13" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="n"/>
+      <c r="J17" s="13" t="n"/>
+      <c r="K17" s="13" t="n"/>
+      <c r="L17" s="13" t="n"/>
+      <c r="M17" s="13" t="n"/>
+      <c r="N17" s="13" t="n"/>
+      <c r="O17" s="13" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="13" t="n"/>
+      <c r="J18" s="13" t="n"/>
+      <c r="K18" s="13" t="n"/>
+      <c r="L18" s="13" t="n"/>
+      <c r="M18" s="13" t="n"/>
+      <c r="N18" s="13" t="n"/>
+      <c r="O18" s="13" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="13" t="n"/>
+      <c r="H19" s="13" t="n"/>
+      <c r="I19" s="13" t="n"/>
+      <c r="J19" s="13" t="n"/>
+      <c r="K19" s="13" t="n"/>
+      <c r="L19" s="13" t="n"/>
+      <c r="M19" s="13" t="n"/>
+      <c r="N19" s="13" t="n"/>
+      <c r="O19" s="13" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
+      <c r="H20" s="13" t="n"/>
+      <c r="I20" s="13" t="n"/>
+      <c r="J20" s="13" t="n"/>
+      <c r="K20" s="13" t="n"/>
+      <c r="L20" s="13" t="n"/>
+      <c r="M20" s="13" t="n"/>
+      <c r="N20" s="13" t="n"/>
+      <c r="O20" s="13" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
+      <c r="I21" s="13" t="n"/>
+      <c r="J21" s="13" t="n"/>
+      <c r="K21" s="13" t="n"/>
+      <c r="L21" s="13" t="n"/>
+      <c r="M21" s="13" t="n"/>
+      <c r="N21" s="13" t="n"/>
+      <c r="O21" s="13" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="n"/>
+      <c r="B22" s="13" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="13" t="n"/>
+      <c r="H22" s="13" t="n"/>
+      <c r="I22" s="13" t="n"/>
+      <c r="J22" s="13" t="n"/>
+      <c r="K22" s="13" t="n"/>
+      <c r="L22" s="13" t="n"/>
+      <c r="M22" s="13" t="n"/>
+      <c r="N22" s="13" t="n"/>
+      <c r="O22" s="13" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="13" t="n"/>
+      <c r="J23" s="13" t="n"/>
+      <c r="K23" s="13" t="n"/>
+      <c r="L23" s="13" t="n"/>
+      <c r="M23" s="13" t="n"/>
+      <c r="N23" s="13" t="n"/>
+      <c r="O23" s="13" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="13" t="n"/>
+      <c r="H24" s="13" t="n"/>
+      <c r="I24" s="13" t="n"/>
+      <c r="J24" s="13" t="n"/>
+      <c r="K24" s="13" t="n"/>
+      <c r="L24" s="13" t="n"/>
+      <c r="M24" s="13" t="n"/>
+      <c r="N24" s="13" t="n"/>
+      <c r="O24" s="13" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="13" t="n"/>
+      <c r="H25" s="13" t="n"/>
+      <c r="I25" s="13" t="n"/>
+      <c r="J25" s="13" t="n"/>
+      <c r="K25" s="13" t="n"/>
+      <c r="L25" s="13" t="n"/>
+      <c r="M25" s="13" t="n"/>
+      <c r="N25" s="13" t="n"/>
+      <c r="O25" s="13" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="13" t="n"/>
+      <c r="H26" s="13" t="n"/>
+      <c r="I26" s="13" t="n"/>
+      <c r="J26" s="13" t="n"/>
+      <c r="K26" s="13" t="n"/>
+      <c r="L26" s="13" t="n"/>
+      <c r="M26" s="13" t="n"/>
+      <c r="N26" s="13" t="n"/>
+      <c r="O26" s="13" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="13" t="n"/>
+      <c r="H27" s="13" t="n"/>
+      <c r="I27" s="13" t="n"/>
+      <c r="J27" s="13" t="n"/>
+      <c r="K27" s="13" t="n"/>
+      <c r="L27" s="13" t="n"/>
+      <c r="M27" s="13" t="n"/>
+      <c r="N27" s="13" t="n"/>
+      <c r="O27" s="13" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="13" t="n"/>
+      <c r="H28" s="13" t="n"/>
+      <c r="I28" s="13" t="n"/>
+      <c r="J28" s="13" t="n"/>
+      <c r="K28" s="13" t="n"/>
+      <c r="L28" s="13" t="n"/>
+      <c r="M28" s="13" t="n"/>
+      <c r="N28" s="13" t="n"/>
+      <c r="O28" s="13" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="13" t="n"/>
+      <c r="H29" s="13" t="n"/>
+      <c r="I29" s="13" t="n"/>
+      <c r="J29" s="13" t="n"/>
+      <c r="K29" s="13" t="n"/>
+      <c r="L29" s="13" t="n"/>
+      <c r="M29" s="13" t="n"/>
+      <c r="N29" s="13" t="n"/>
+      <c r="O29" s="13" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+      <c r="G30" s="13" t="n"/>
+      <c r="H30" s="13" t="n"/>
+      <c r="I30" s="13" t="n"/>
+      <c r="J30" s="13" t="n"/>
+      <c r="K30" s="13" t="n"/>
+      <c r="L30" s="13" t="n"/>
+      <c r="M30" s="13" t="n"/>
+      <c r="N30" s="13" t="n"/>
+      <c r="O30" s="13" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26110,7 +25566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26290,7 +25746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26487,7 +25943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26616,7 +26072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26728,7 +26184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26854,7 +26310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27051,7 +26507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27231,7 +26687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27526,6 +26982,128 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C16"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.5" customWidth="1" min="1" max="1"/>
+    <col width="55.9" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="2">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
+        <v/>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>Reset</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>Reset value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Εταιρικό ομόλογο</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Τα εταιρικά ομόλογα (corporate bond funds) κατά κύριο λόγο (άνω του
+            50 %) επενδύουν σε χρεόγραφα έκδοσης χρηματοοικονομικών και μη
+            χρηματοοικονομικών εταιρειών.
+            </t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>GOV</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="inlineStr">
+        <is>
+          <t>Κρατικό ομόλογο</t>
+        </is>
+      </c>
+      <c r="C4" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Τα κρατικά ομόλογα (government bond funds) κατά κύριο λόγο (άνω του
+            50 %) επενδύουν σε χρεόγραφα έκδοσης κυβερνήσεων.
+            </t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Μεικτό εταιρικό ομόλογο / κρατικό ομόλογο</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Bond funds that invest in both government and corporate bonds with
+            no prevailing policy in favour of one or the other.
+            </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -28092,128 +27670,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="55.9" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="2">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
-        <v/>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="36" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>Reset</t>
-        </is>
-      </c>
-      <c r="C2" s="14" t="inlineStr">
-        <is>
-          <t>Reset value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Εταιρικό ομόλογο</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-            Τα εταιρικά ομόλογα (corporate bond funds) κατά κύριο λόγο (άνω του
-            50 %) επενδύουν σε χρεόγραφα έκδοσης χρηματοοικονομικών και μη
-            χρηματοοικονομικών εταιρειών.
-            </t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>GOV</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>Κρατικό ομόλογο</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-            Τα κρατικά ομόλογα (government bond funds) κατά κύριο λόγο (άνω του
-            50 %) επενδύουν σε χρεόγραφα έκδοσης κυβερνήσεων.
-            </t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="36" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>MIX</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Μεικτό εταιρικό ομόλογο / κρατικό ομόλογο</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-            Bond funds that invest in both government and corporate bonds with
-            no prevailing policy in favour of one or the other.
-            </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C5"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6.5" customWidth="1" min="1" max="1"/>
     <col width="59.8" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
@@ -28321,7 +27777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28424,7 +27880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28659,7 +28115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28783,7 +28239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29060,7 +28516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29180,7 +28636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29344,7 +28800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29506,7 +28962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29632,551 +29088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: I50
-        </t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="13" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="13" t="n"/>
-      <c r="J3" s="13" t="n"/>
-      <c r="K3" s="13" t="n"/>
-      <c r="L3" s="13" t="n"/>
-      <c r="M3" s="13" t="n"/>
-      <c r="N3" s="13" t="n"/>
-      <c r="O3" s="13" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="13" t="n"/>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="13" t="n"/>
-      <c r="I4" s="13" t="n"/>
-      <c r="J4" s="13" t="n"/>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="13" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
-      <c r="I5" s="13" t="n"/>
-      <c r="J5" s="13" t="n"/>
-      <c r="K5" s="13" t="n"/>
-      <c r="L5" s="13" t="n"/>
-      <c r="M5" s="13" t="n"/>
-      <c r="N5" s="13" t="n"/>
-      <c r="O5" s="13" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n"/>
-      <c r="K6" s="13" t="n"/>
-      <c r="L6" s="13" t="n"/>
-      <c r="M6" s="13" t="n"/>
-      <c r="N6" s="13" t="n"/>
-      <c r="O6" s="13" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n"/>
-      <c r="K7" s="13" t="n"/>
-      <c r="L7" s="13" t="n"/>
-      <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="n"/>
-      <c r="O7" s="13" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
-      <c r="L8" s="13" t="n"/>
-      <c r="M8" s="13" t="n"/>
-      <c r="N8" s="13" t="n"/>
-      <c r="O8" s="13" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="13" t="n"/>
-      <c r="M9" s="13" t="n"/>
-      <c r="N9" s="13" t="n"/>
-      <c r="O9" s="13" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="13" t="n"/>
-      <c r="L10" s="13" t="n"/>
-      <c r="M10" s="13" t="n"/>
-      <c r="N10" s="13" t="n"/>
-      <c r="O10" s="13" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
-      <c r="L11" s="13" t="n"/>
-      <c r="M11" s="13" t="n"/>
-      <c r="N11" s="13" t="n"/>
-      <c r="O11" s="13" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="13" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n"/>
-      <c r="K12" s="13" t="n"/>
-      <c r="L12" s="13" t="n"/>
-      <c r="M12" s="13" t="n"/>
-      <c r="N12" s="13" t="n"/>
-      <c r="O12" s="13" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n"/>
-      <c r="K13" s="13" t="n"/>
-      <c r="L13" s="13" t="n"/>
-      <c r="M13" s="13" t="n"/>
-      <c r="N13" s="13" t="n"/>
-      <c r="O13" s="13" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n"/>
-      <c r="K14" s="13" t="n"/>
-      <c r="L14" s="13" t="n"/>
-      <c r="M14" s="13" t="n"/>
-      <c r="N14" s="13" t="n"/>
-      <c r="O14" s="13" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="13" t="n"/>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n"/>
-      <c r="K15" s="13" t="n"/>
-      <c r="L15" s="13" t="n"/>
-      <c r="M15" s="13" t="n"/>
-      <c r="N15" s="13" t="n"/>
-      <c r="O15" s="13" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="13" t="n"/>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n"/>
-      <c r="K16" s="13" t="n"/>
-      <c r="L16" s="13" t="n"/>
-      <c r="M16" s="13" t="n"/>
-      <c r="N16" s="13" t="n"/>
-      <c r="O16" s="13" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="13" t="n"/>
-      <c r="H17" s="13" t="n"/>
-      <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="n"/>
-      <c r="K17" s="13" t="n"/>
-      <c r="L17" s="13" t="n"/>
-      <c r="M17" s="13" t="n"/>
-      <c r="N17" s="13" t="n"/>
-      <c r="O17" s="13" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="13" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
-      <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="n"/>
-      <c r="N18" s="13" t="n"/>
-      <c r="O18" s="13" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
-      <c r="L19" s="13" t="n"/>
-      <c r="M19" s="13" t="n"/>
-      <c r="N19" s="13" t="n"/>
-      <c r="O19" s="13" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="13" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="13" t="n"/>
-      <c r="M20" s="13" t="n"/>
-      <c r="N20" s="13" t="n"/>
-      <c r="O20" s="13" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
-      <c r="L21" s="13" t="n"/>
-      <c r="M21" s="13" t="n"/>
-      <c r="N21" s="13" t="n"/>
-      <c r="O21" s="13" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="13" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
-      <c r="L22" s="13" t="n"/>
-      <c r="M22" s="13" t="n"/>
-      <c r="N22" s="13" t="n"/>
-      <c r="O22" s="13" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
-      <c r="L23" s="13" t="n"/>
-      <c r="M23" s="13" t="n"/>
-      <c r="N23" s="13" t="n"/>
-      <c r="O23" s="13" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="13" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="13" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
-      <c r="L24" s="13" t="n"/>
-      <c r="M24" s="13" t="n"/>
-      <c r="N24" s="13" t="n"/>
-      <c r="O24" s="13" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
-      <c r="L25" s="13" t="n"/>
-      <c r="M25" s="13" t="n"/>
-      <c r="N25" s="13" t="n"/>
-      <c r="O25" s="13" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="13" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
-      <c r="L26" s="13" t="n"/>
-      <c r="M26" s="13" t="n"/>
-      <c r="N26" s="13" t="n"/>
-      <c r="O26" s="13" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="n"/>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="13" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="13" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
-      <c r="L27" s="13" t="n"/>
-      <c r="M27" s="13" t="n"/>
-      <c r="N27" s="13" t="n"/>
-      <c r="O27" s="13" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="n"/>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="13" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="13" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="13" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
-      <c r="L28" s="13" t="n"/>
-      <c r="M28" s="13" t="n"/>
-      <c r="N28" s="13" t="n"/>
-      <c r="O28" s="13" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="13" t="n"/>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
-      <c r="G29" s="13" t="n"/>
-      <c r="H29" s="13" t="n"/>
-      <c r="I29" s="13" t="n"/>
-      <c r="J29" s="13" t="n"/>
-      <c r="K29" s="13" t="n"/>
-      <c r="L29" s="13" t="n"/>
-      <c r="M29" s="13" t="n"/>
-      <c r="N29" s="13" t="n"/>
-      <c r="O29" s="13" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="n"/>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="13" t="n"/>
-      <c r="H30" s="13" t="n"/>
-      <c r="I30" s="13" t="n"/>
-      <c r="J30" s="13" t="n"/>
-      <c r="K30" s="13" t="n"/>
-      <c r="L30" s="13" t="n"/>
-      <c r="M30" s="13" t="n"/>
-      <c r="N30" s="13" t="n"/>
-      <c r="O30" s="13" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31988,7 +30900,551 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="12">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="12" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: string
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: I50
+        </t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="13" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="13" t="n"/>
+      <c r="F2" s="13" t="n"/>
+      <c r="G2" s="13" t="n"/>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="n"/>
+      <c r="J2" s="13" t="n"/>
+      <c r="K2" s="13" t="n"/>
+      <c r="L2" s="13" t="n"/>
+      <c r="M2" s="13" t="n"/>
+      <c r="N2" s="13" t="n"/>
+      <c r="O2" s="13" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="n"/>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
+      <c r="F3" s="13" t="n"/>
+      <c r="G3" s="13" t="n"/>
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="13" t="n"/>
+      <c r="J3" s="13" t="n"/>
+      <c r="K3" s="13" t="n"/>
+      <c r="L3" s="13" t="n"/>
+      <c r="M3" s="13" t="n"/>
+      <c r="N3" s="13" t="n"/>
+      <c r="O3" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="13" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="13" t="n"/>
+      <c r="I4" s="13" t="n"/>
+      <c r="J4" s="13" t="n"/>
+      <c r="K4" s="13" t="n"/>
+      <c r="L4" s="13" t="n"/>
+      <c r="M4" s="13" t="n"/>
+      <c r="N4" s="13" t="n"/>
+      <c r="O4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="13" t="n"/>
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="13" t="n"/>
+      <c r="M5" s="13" t="n"/>
+      <c r="N5" s="13" t="n"/>
+      <c r="O5" s="13" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="13" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="13" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="13" t="n"/>
+      <c r="M6" s="13" t="n"/>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="13" t="n"/>
+      <c r="M7" s="13" t="n"/>
+      <c r="N7" s="13" t="n"/>
+      <c r="O7" s="13" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="13" t="n"/>
+      <c r="M8" s="13" t="n"/>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="13" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="13" t="n"/>
+      <c r="M9" s="13" t="n"/>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="13" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="13" t="n"/>
+      <c r="M10" s="13" t="n"/>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="13" t="n"/>
+      <c r="M11" s="13" t="n"/>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="13" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="13" t="n"/>
+      <c r="M12" s="13" t="n"/>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="13" t="n"/>
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="13" t="n"/>
+      <c r="J13" s="13" t="n"/>
+      <c r="K13" s="13" t="n"/>
+      <c r="L13" s="13" t="n"/>
+      <c r="M13" s="13" t="n"/>
+      <c r="N13" s="13" t="n"/>
+      <c r="O13" s="13" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="13" t="n"/>
+      <c r="J14" s="13" t="n"/>
+      <c r="K14" s="13" t="n"/>
+      <c r="L14" s="13" t="n"/>
+      <c r="M14" s="13" t="n"/>
+      <c r="N14" s="13" t="n"/>
+      <c r="O14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="13" t="n"/>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="n"/>
+      <c r="J15" s="13" t="n"/>
+      <c r="K15" s="13" t="n"/>
+      <c r="L15" s="13" t="n"/>
+      <c r="M15" s="13" t="n"/>
+      <c r="N15" s="13" t="n"/>
+      <c r="O15" s="13" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
+      <c r="L16" s="13" t="n"/>
+      <c r="M16" s="13" t="n"/>
+      <c r="N16" s="13" t="n"/>
+      <c r="O16" s="13" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="n"/>
+      <c r="J17" s="13" t="n"/>
+      <c r="K17" s="13" t="n"/>
+      <c r="L17" s="13" t="n"/>
+      <c r="M17" s="13" t="n"/>
+      <c r="N17" s="13" t="n"/>
+      <c r="O17" s="13" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="13" t="n"/>
+      <c r="J18" s="13" t="n"/>
+      <c r="K18" s="13" t="n"/>
+      <c r="L18" s="13" t="n"/>
+      <c r="M18" s="13" t="n"/>
+      <c r="N18" s="13" t="n"/>
+      <c r="O18" s="13" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="13" t="n"/>
+      <c r="H19" s="13" t="n"/>
+      <c r="I19" s="13" t="n"/>
+      <c r="J19" s="13" t="n"/>
+      <c r="K19" s="13" t="n"/>
+      <c r="L19" s="13" t="n"/>
+      <c r="M19" s="13" t="n"/>
+      <c r="N19" s="13" t="n"/>
+      <c r="O19" s="13" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
+      <c r="H20" s="13" t="n"/>
+      <c r="I20" s="13" t="n"/>
+      <c r="J20" s="13" t="n"/>
+      <c r="K20" s="13" t="n"/>
+      <c r="L20" s="13" t="n"/>
+      <c r="M20" s="13" t="n"/>
+      <c r="N20" s="13" t="n"/>
+      <c r="O20" s="13" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
+      <c r="I21" s="13" t="n"/>
+      <c r="J21" s="13" t="n"/>
+      <c r="K21" s="13" t="n"/>
+      <c r="L21" s="13" t="n"/>
+      <c r="M21" s="13" t="n"/>
+      <c r="N21" s="13" t="n"/>
+      <c r="O21" s="13" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="n"/>
+      <c r="B22" s="13" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="13" t="n"/>
+      <c r="H22" s="13" t="n"/>
+      <c r="I22" s="13" t="n"/>
+      <c r="J22" s="13" t="n"/>
+      <c r="K22" s="13" t="n"/>
+      <c r="L22" s="13" t="n"/>
+      <c r="M22" s="13" t="n"/>
+      <c r="N22" s="13" t="n"/>
+      <c r="O22" s="13" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="13" t="n"/>
+      <c r="J23" s="13" t="n"/>
+      <c r="K23" s="13" t="n"/>
+      <c r="L23" s="13" t="n"/>
+      <c r="M23" s="13" t="n"/>
+      <c r="N23" s="13" t="n"/>
+      <c r="O23" s="13" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="13" t="n"/>
+      <c r="H24" s="13" t="n"/>
+      <c r="I24" s="13" t="n"/>
+      <c r="J24" s="13" t="n"/>
+      <c r="K24" s="13" t="n"/>
+      <c r="L24" s="13" t="n"/>
+      <c r="M24" s="13" t="n"/>
+      <c r="N24" s="13" t="n"/>
+      <c r="O24" s="13" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="13" t="n"/>
+      <c r="H25" s="13" t="n"/>
+      <c r="I25" s="13" t="n"/>
+      <c r="J25" s="13" t="n"/>
+      <c r="K25" s="13" t="n"/>
+      <c r="L25" s="13" t="n"/>
+      <c r="M25" s="13" t="n"/>
+      <c r="N25" s="13" t="n"/>
+      <c r="O25" s="13" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="13" t="n"/>
+      <c r="H26" s="13" t="n"/>
+      <c r="I26" s="13" t="n"/>
+      <c r="J26" s="13" t="n"/>
+      <c r="K26" s="13" t="n"/>
+      <c r="L26" s="13" t="n"/>
+      <c r="M26" s="13" t="n"/>
+      <c r="N26" s="13" t="n"/>
+      <c r="O26" s="13" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="13" t="n"/>
+      <c r="H27" s="13" t="n"/>
+      <c r="I27" s="13" t="n"/>
+      <c r="J27" s="13" t="n"/>
+      <c r="K27" s="13" t="n"/>
+      <c r="L27" s="13" t="n"/>
+      <c r="M27" s="13" t="n"/>
+      <c r="N27" s="13" t="n"/>
+      <c r="O27" s="13" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="13" t="n"/>
+      <c r="H28" s="13" t="n"/>
+      <c r="I28" s="13" t="n"/>
+      <c r="J28" s="13" t="n"/>
+      <c r="K28" s="13" t="n"/>
+      <c r="L28" s="13" t="n"/>
+      <c r="M28" s="13" t="n"/>
+      <c r="N28" s="13" t="n"/>
+      <c r="O28" s="13" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="13" t="n"/>
+      <c r="H29" s="13" t="n"/>
+      <c r="I29" s="13" t="n"/>
+      <c r="J29" s="13" t="n"/>
+      <c r="K29" s="13" t="n"/>
+      <c r="L29" s="13" t="n"/>
+      <c r="M29" s="13" t="n"/>
+      <c r="N29" s="13" t="n"/>
+      <c r="O29" s="13" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+      <c r="G30" s="13" t="n"/>
+      <c r="H30" s="13" t="n"/>
+      <c r="I30" s="13" t="n"/>
+      <c r="J30" s="13" t="n"/>
+      <c r="K30" s="13" t="n"/>
+      <c r="L30" s="13" t="n"/>
+      <c r="M30" s="13" t="n"/>
+      <c r="N30" s="13" t="n"/>
+      <c r="O30" s="13" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32746,7 +32202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33385,7 +32841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -76847,7 +76303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77078,7 +76534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77224,7 +76680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77519,7 +76975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77648,7 +77104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77981,7 +77437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78194,550 +77650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: string
-        max_length: 256
-        </t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="13" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="13" t="n"/>
-      <c r="J3" s="13" t="n"/>
-      <c r="K3" s="13" t="n"/>
-      <c r="L3" s="13" t="n"/>
-      <c r="M3" s="13" t="n"/>
-      <c r="N3" s="13" t="n"/>
-      <c r="O3" s="13" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="n"/>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="13" t="n"/>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="13" t="n"/>
-      <c r="I4" s="13" t="n"/>
-      <c r="J4" s="13" t="n"/>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="13" t="n"/>
-      <c r="M4" s="13" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="13" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
-      <c r="I5" s="13" t="n"/>
-      <c r="J5" s="13" t="n"/>
-      <c r="K5" s="13" t="n"/>
-      <c r="L5" s="13" t="n"/>
-      <c r="M5" s="13" t="n"/>
-      <c r="N5" s="13" t="n"/>
-      <c r="O5" s="13" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n"/>
-      <c r="K6" s="13" t="n"/>
-      <c r="L6" s="13" t="n"/>
-      <c r="M6" s="13" t="n"/>
-      <c r="N6" s="13" t="n"/>
-      <c r="O6" s="13" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n"/>
-      <c r="K7" s="13" t="n"/>
-      <c r="L7" s="13" t="n"/>
-      <c r="M7" s="13" t="n"/>
-      <c r="N7" s="13" t="n"/>
-      <c r="O7" s="13" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="13" t="n"/>
-      <c r="L8" s="13" t="n"/>
-      <c r="M8" s="13" t="n"/>
-      <c r="N8" s="13" t="n"/>
-      <c r="O8" s="13" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="13" t="n"/>
-      <c r="M9" s="13" t="n"/>
-      <c r="N9" s="13" t="n"/>
-      <c r="O9" s="13" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="13" t="n"/>
-      <c r="L10" s="13" t="n"/>
-      <c r="M10" s="13" t="n"/>
-      <c r="N10" s="13" t="n"/>
-      <c r="O10" s="13" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="13" t="n"/>
-      <c r="L11" s="13" t="n"/>
-      <c r="M11" s="13" t="n"/>
-      <c r="N11" s="13" t="n"/>
-      <c r="O11" s="13" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="13" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n"/>
-      <c r="K12" s="13" t="n"/>
-      <c r="L12" s="13" t="n"/>
-      <c r="M12" s="13" t="n"/>
-      <c r="N12" s="13" t="n"/>
-      <c r="O12" s="13" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n"/>
-      <c r="K13" s="13" t="n"/>
-      <c r="L13" s="13" t="n"/>
-      <c r="M13" s="13" t="n"/>
-      <c r="N13" s="13" t="n"/>
-      <c r="O13" s="13" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n"/>
-      <c r="K14" s="13" t="n"/>
-      <c r="L14" s="13" t="n"/>
-      <c r="M14" s="13" t="n"/>
-      <c r="N14" s="13" t="n"/>
-      <c r="O14" s="13" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="13" t="n"/>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n"/>
-      <c r="K15" s="13" t="n"/>
-      <c r="L15" s="13" t="n"/>
-      <c r="M15" s="13" t="n"/>
-      <c r="N15" s="13" t="n"/>
-      <c r="O15" s="13" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="13" t="n"/>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n"/>
-      <c r="K16" s="13" t="n"/>
-      <c r="L16" s="13" t="n"/>
-      <c r="M16" s="13" t="n"/>
-      <c r="N16" s="13" t="n"/>
-      <c r="O16" s="13" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="13" t="n"/>
-      <c r="H17" s="13" t="n"/>
-      <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="n"/>
-      <c r="K17" s="13" t="n"/>
-      <c r="L17" s="13" t="n"/>
-      <c r="M17" s="13" t="n"/>
-      <c r="N17" s="13" t="n"/>
-      <c r="O17" s="13" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="13" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
-      <c r="L18" s="13" t="n"/>
-      <c r="M18" s="13" t="n"/>
-      <c r="N18" s="13" t="n"/>
-      <c r="O18" s="13" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
-      <c r="L19" s="13" t="n"/>
-      <c r="M19" s="13" t="n"/>
-      <c r="N19" s="13" t="n"/>
-      <c r="O19" s="13" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="13" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="13" t="n"/>
-      <c r="M20" s="13" t="n"/>
-      <c r="N20" s="13" t="n"/>
-      <c r="O20" s="13" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
-      <c r="L21" s="13" t="n"/>
-      <c r="M21" s="13" t="n"/>
-      <c r="N21" s="13" t="n"/>
-      <c r="O21" s="13" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="13" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
-      <c r="L22" s="13" t="n"/>
-      <c r="M22" s="13" t="n"/>
-      <c r="N22" s="13" t="n"/>
-      <c r="O22" s="13" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="n"/>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
-      <c r="L23" s="13" t="n"/>
-      <c r="M23" s="13" t="n"/>
-      <c r="N23" s="13" t="n"/>
-      <c r="O23" s="13" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="n"/>
-      <c r="B24" s="13" t="n"/>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="13" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="13" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
-      <c r="L24" s="13" t="n"/>
-      <c r="M24" s="13" t="n"/>
-      <c r="N24" s="13" t="n"/>
-      <c r="O24" s="13" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
-      <c r="L25" s="13" t="n"/>
-      <c r="M25" s="13" t="n"/>
-      <c r="N25" s="13" t="n"/>
-      <c r="O25" s="13" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="13" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
-      <c r="L26" s="13" t="n"/>
-      <c r="M26" s="13" t="n"/>
-      <c r="N26" s="13" t="n"/>
-      <c r="O26" s="13" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="n"/>
-      <c r="B27" s="13" t="n"/>
-      <c r="C27" s="13" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="13" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="13" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
-      <c r="L27" s="13" t="n"/>
-      <c r="M27" s="13" t="n"/>
-      <c r="N27" s="13" t="n"/>
-      <c r="O27" s="13" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="n"/>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="13" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="13" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="13" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
-      <c r="L28" s="13" t="n"/>
-      <c r="M28" s="13" t="n"/>
-      <c r="N28" s="13" t="n"/>
-      <c r="O28" s="13" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="n"/>
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="13" t="n"/>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
-      <c r="G29" s="13" t="n"/>
-      <c r="H29" s="13" t="n"/>
-      <c r="I29" s="13" t="n"/>
-      <c r="J29" s="13" t="n"/>
-      <c r="K29" s="13" t="n"/>
-      <c r="L29" s="13" t="n"/>
-      <c r="M29" s="13" t="n"/>
-      <c r="N29" s="13" t="n"/>
-      <c r="O29" s="13" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="n"/>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="13" t="n"/>
-      <c r="H30" s="13" t="n"/>
-      <c r="I30" s="13" t="n"/>
-      <c r="J30" s="13" t="n"/>
-      <c r="K30" s="13" t="n"/>
-      <c r="L30" s="13" t="n"/>
-      <c r="M30" s="13" t="n"/>
-      <c r="N30" s="13" t="n"/>
-      <c r="O30" s="13" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78883,7 +77796,550 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="12">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="12" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: string
+        max_length: 256
+        </t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="13" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="13" t="n"/>
+      <c r="F2" s="13" t="n"/>
+      <c r="G2" s="13" t="n"/>
+      <c r="H2" s="13" t="n"/>
+      <c r="I2" s="13" t="n"/>
+      <c r="J2" s="13" t="n"/>
+      <c r="K2" s="13" t="n"/>
+      <c r="L2" s="13" t="n"/>
+      <c r="M2" s="13" t="n"/>
+      <c r="N2" s="13" t="n"/>
+      <c r="O2" s="13" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="n"/>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
+      <c r="F3" s="13" t="n"/>
+      <c r="G3" s="13" t="n"/>
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="13" t="n"/>
+      <c r="J3" s="13" t="n"/>
+      <c r="K3" s="13" t="n"/>
+      <c r="L3" s="13" t="n"/>
+      <c r="M3" s="13" t="n"/>
+      <c r="N3" s="13" t="n"/>
+      <c r="O3" s="13" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="13" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="13" t="n"/>
+      <c r="I4" s="13" t="n"/>
+      <c r="J4" s="13" t="n"/>
+      <c r="K4" s="13" t="n"/>
+      <c r="L4" s="13" t="n"/>
+      <c r="M4" s="13" t="n"/>
+      <c r="N4" s="13" t="n"/>
+      <c r="O4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="13" t="n"/>
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="13" t="n"/>
+      <c r="M5" s="13" t="n"/>
+      <c r="N5" s="13" t="n"/>
+      <c r="O5" s="13" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="13" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="13" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="13" t="n"/>
+      <c r="M6" s="13" t="n"/>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="13" t="n"/>
+      <c r="M7" s="13" t="n"/>
+      <c r="N7" s="13" t="n"/>
+      <c r="O7" s="13" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="13" t="n"/>
+      <c r="M8" s="13" t="n"/>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="13" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="13" t="n"/>
+      <c r="M9" s="13" t="n"/>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="13" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="13" t="n"/>
+      <c r="M10" s="13" t="n"/>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="13" t="n"/>
+      <c r="M11" s="13" t="n"/>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="13" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="13" t="n"/>
+      <c r="M12" s="13" t="n"/>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="13" t="n"/>
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="13" t="n"/>
+      <c r="J13" s="13" t="n"/>
+      <c r="K13" s="13" t="n"/>
+      <c r="L13" s="13" t="n"/>
+      <c r="M13" s="13" t="n"/>
+      <c r="N13" s="13" t="n"/>
+      <c r="O13" s="13" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="13" t="n"/>
+      <c r="J14" s="13" t="n"/>
+      <c r="K14" s="13" t="n"/>
+      <c r="L14" s="13" t="n"/>
+      <c r="M14" s="13" t="n"/>
+      <c r="N14" s="13" t="n"/>
+      <c r="O14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="13" t="n"/>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="n"/>
+      <c r="J15" s="13" t="n"/>
+      <c r="K15" s="13" t="n"/>
+      <c r="L15" s="13" t="n"/>
+      <c r="M15" s="13" t="n"/>
+      <c r="N15" s="13" t="n"/>
+      <c r="O15" s="13" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
+      <c r="L16" s="13" t="n"/>
+      <c r="M16" s="13" t="n"/>
+      <c r="N16" s="13" t="n"/>
+      <c r="O16" s="13" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="n"/>
+      <c r="J17" s="13" t="n"/>
+      <c r="K17" s="13" t="n"/>
+      <c r="L17" s="13" t="n"/>
+      <c r="M17" s="13" t="n"/>
+      <c r="N17" s="13" t="n"/>
+      <c r="O17" s="13" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="13" t="n"/>
+      <c r="J18" s="13" t="n"/>
+      <c r="K18" s="13" t="n"/>
+      <c r="L18" s="13" t="n"/>
+      <c r="M18" s="13" t="n"/>
+      <c r="N18" s="13" t="n"/>
+      <c r="O18" s="13" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="13" t="n"/>
+      <c r="H19" s="13" t="n"/>
+      <c r="I19" s="13" t="n"/>
+      <c r="J19" s="13" t="n"/>
+      <c r="K19" s="13" t="n"/>
+      <c r="L19" s="13" t="n"/>
+      <c r="M19" s="13" t="n"/>
+      <c r="N19" s="13" t="n"/>
+      <c r="O19" s="13" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
+      <c r="H20" s="13" t="n"/>
+      <c r="I20" s="13" t="n"/>
+      <c r="J20" s="13" t="n"/>
+      <c r="K20" s="13" t="n"/>
+      <c r="L20" s="13" t="n"/>
+      <c r="M20" s="13" t="n"/>
+      <c r="N20" s="13" t="n"/>
+      <c r="O20" s="13" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
+      <c r="I21" s="13" t="n"/>
+      <c r="J21" s="13" t="n"/>
+      <c r="K21" s="13" t="n"/>
+      <c r="L21" s="13" t="n"/>
+      <c r="M21" s="13" t="n"/>
+      <c r="N21" s="13" t="n"/>
+      <c r="O21" s="13" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="n"/>
+      <c r="B22" s="13" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="13" t="n"/>
+      <c r="H22" s="13" t="n"/>
+      <c r="I22" s="13" t="n"/>
+      <c r="J22" s="13" t="n"/>
+      <c r="K22" s="13" t="n"/>
+      <c r="L22" s="13" t="n"/>
+      <c r="M22" s="13" t="n"/>
+      <c r="N22" s="13" t="n"/>
+      <c r="O22" s="13" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="13" t="n"/>
+      <c r="J23" s="13" t="n"/>
+      <c r="K23" s="13" t="n"/>
+      <c r="L23" s="13" t="n"/>
+      <c r="M23" s="13" t="n"/>
+      <c r="N23" s="13" t="n"/>
+      <c r="O23" s="13" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="13" t="n"/>
+      <c r="H24" s="13" t="n"/>
+      <c r="I24" s="13" t="n"/>
+      <c r="J24" s="13" t="n"/>
+      <c r="K24" s="13" t="n"/>
+      <c r="L24" s="13" t="n"/>
+      <c r="M24" s="13" t="n"/>
+      <c r="N24" s="13" t="n"/>
+      <c r="O24" s="13" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="13" t="n"/>
+      <c r="H25" s="13" t="n"/>
+      <c r="I25" s="13" t="n"/>
+      <c r="J25" s="13" t="n"/>
+      <c r="K25" s="13" t="n"/>
+      <c r="L25" s="13" t="n"/>
+      <c r="M25" s="13" t="n"/>
+      <c r="N25" s="13" t="n"/>
+      <c r="O25" s="13" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="13" t="n"/>
+      <c r="H26" s="13" t="n"/>
+      <c r="I26" s="13" t="n"/>
+      <c r="J26" s="13" t="n"/>
+      <c r="K26" s="13" t="n"/>
+      <c r="L26" s="13" t="n"/>
+      <c r="M26" s="13" t="n"/>
+      <c r="N26" s="13" t="n"/>
+      <c r="O26" s="13" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="13" t="n"/>
+      <c r="H27" s="13" t="n"/>
+      <c r="I27" s="13" t="n"/>
+      <c r="J27" s="13" t="n"/>
+      <c r="K27" s="13" t="n"/>
+      <c r="L27" s="13" t="n"/>
+      <c r="M27" s="13" t="n"/>
+      <c r="N27" s="13" t="n"/>
+      <c r="O27" s="13" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="13" t="n"/>
+      <c r="H28" s="13" t="n"/>
+      <c r="I28" s="13" t="n"/>
+      <c r="J28" s="13" t="n"/>
+      <c r="K28" s="13" t="n"/>
+      <c r="L28" s="13" t="n"/>
+      <c r="M28" s="13" t="n"/>
+      <c r="N28" s="13" t="n"/>
+      <c r="O28" s="13" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="13" t="n"/>
+      <c r="H29" s="13" t="n"/>
+      <c r="I29" s="13" t="n"/>
+      <c r="J29" s="13" t="n"/>
+      <c r="K29" s="13" t="n"/>
+      <c r="L29" s="13" t="n"/>
+      <c r="M29" s="13" t="n"/>
+      <c r="N29" s="13" t="n"/>
+      <c r="O29" s="13" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+      <c r="G30" s="13" t="n"/>
+      <c r="H30" s="13" t="n"/>
+      <c r="I30" s="13" t="n"/>
+      <c r="J30" s="13" t="n"/>
+      <c r="K30" s="13" t="n"/>
+      <c r="L30" s="13" t="n"/>
+      <c r="M30" s="13" t="n"/>
+      <c r="N30" s="13" t="n"/>
+      <c r="O30" s="13" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -79114,7 +78570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -79284,7 +78740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -79430,7 +78886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -79627,7 +79083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
+++ b/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
@@ -82,7 +82,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOURCE_TYPE_ENUM" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DATA_STRUCTURE'!$A$1:$F$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DATA_STRUCTURE'!$A$1:$F$289</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'ASST_NN_FNNCL_ENUM'!$A$1:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'BOOL_ENUM'!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'BOOL_EXT_ENUM'!$A$1:$C$5</definedName>
@@ -6692,7 +6692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="E64" s="10" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F64" s="9" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="B65" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="E65" s="10" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F65" s="9" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="B66" s="8" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FRQNCY</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="E66" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F66" s="9" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="B67" s="8" t="inlineStr">
         <is>
-          <t>FRQNCY</t>
+          <t>STCK</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E67" s="10" t="inlineStr">
         <is>
-          <t>GEN_FRQNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F67" s="9" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B68" s="8" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>FLS</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="B69" s="8" t="inlineStr">
         <is>
-          <t>FLS</t>
+          <t>NMNL_STCK</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="B70" s="8" t="inlineStr">
         <is>
-          <t>NMNL_STCK</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -8952,32 +8952,32 @@
       </c>
     </row>
     <row r="71" ht="36" customHeight="1">
-      <c r="A71" s="8" t="inlineStr">
-        <is>
-          <t>ACC.LBLTY_DBT</t>
-        </is>
-      </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>ACCRLS</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>ACC.LBLTY_LN</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>IID</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>ACC</t>
         </is>
       </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E71" s="10" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F71" s="9" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>LON</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B72" s="5" t="inlineStr">
         <is>
-          <t>IID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C72" s="6" t="inlineStr">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="E72" s="7" t="inlineStr">
         <is>
-          <t>LON</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F72" s="6" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B73" s="5" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FRQNCY</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
@@ -9038,7 +9038,7 @@
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F73" s="6" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="B74" s="5" t="inlineStr">
         <is>
-          <t>FRQNCY</t>
+          <t>STCK</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
@@ -9065,12 +9065,12 @@
       </c>
       <c r="D74" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E74" s="7" t="inlineStr">
         <is>
-          <t>GEN_FRQNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F74" s="6" t="inlineStr">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="B75" s="5" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>FLS</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="B76" s="5" t="inlineStr">
         <is>
-          <t>FLS</t>
+          <t>ACCRLS</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B77" s="5" t="inlineStr">
         <is>
-          <t>ACCRLS</t>
+          <t>IS_GRP_LN</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>BOOL</t>
         </is>
       </c>
       <c r="F77" s="6" t="inlineStr">
@@ -9176,32 +9176,32 @@
       </c>
     </row>
     <row r="78" ht="36" customHeight="1">
-      <c r="A78" s="5" t="inlineStr">
-        <is>
-          <t>ACC.LBLTY_LN</t>
-        </is>
-      </c>
-      <c r="B78" s="5" t="inlineStr">
-        <is>
-          <t>IS_GRP_LN</t>
-        </is>
-      </c>
-      <c r="C78" s="6" t="inlineStr">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
+          <t>ACC.LBLTY_RMNNG</t>
+        </is>
+      </c>
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
         <is>
           <t>ACC</t>
         </is>
       </c>
-      <c r="D78" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E78" s="7" t="inlineStr">
-        <is>
-          <t>BOOL</t>
-        </is>
-      </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="D78" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E78" s="10" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
+      <c r="F78" s="9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="B79" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="E79" s="10" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>REM_LIAB_ENUM</t>
         </is>
       </c>
       <c r="F79" s="9" t="inlineStr">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="B80" s="8" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="E80" s="10" t="inlineStr">
         <is>
-          <t>REM_LIAB_ENUM</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F80" s="9" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="B81" s="8" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FRQNCY</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="E81" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F81" s="9" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="B82" s="8" t="inlineStr">
         <is>
-          <t>FRQNCY</t>
+          <t>STCK</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -9321,12 +9321,12 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E82" s="10" t="inlineStr">
         <is>
-          <t>GEN_FRQNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F82" s="9" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="B83" s="8" t="inlineStr">
         <is>
-          <t>STCK</t>
+          <t>FLS</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -9368,32 +9368,32 @@
       </c>
     </row>
     <row r="84" ht="36" customHeight="1">
-      <c r="A84" s="8" t="inlineStr">
-        <is>
-          <t>ACC.LBLTY_RMNNG</t>
-        </is>
-      </c>
-      <c r="B84" s="8" t="inlineStr">
-        <is>
-          <t>FLS</t>
-        </is>
-      </c>
-      <c r="C84" s="9" t="inlineStr">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>ACC.HLDR</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>IID</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>ACC</t>
         </is>
       </c>
-      <c r="D84" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E84" s="10" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F84" s="9" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E84" s="7" t="inlineStr">
+        <is>
+          <t>SHR</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="B85" s="5" t="inlineStr">
         <is>
-          <t>IID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ORG_</t>
         </is>
       </c>
       <c r="F85" s="6" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="B86" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C86" s="6" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="E86" s="7" t="inlineStr">
         <is>
-          <t>ORG_</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F86" s="6" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B87" s="5" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FRQNCY</t>
         </is>
       </c>
       <c r="C87" s="6" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F87" s="6" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B88" s="5" t="inlineStr">
         <is>
-          <t>FRQNCY</t>
+          <t>QNTTY</t>
         </is>
       </c>
       <c r="C88" s="6" t="inlineStr">
@@ -9513,12 +9513,12 @@
       </c>
       <c r="D88" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E88" s="7" t="inlineStr">
         <is>
-          <t>GEN_FRQNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F88" s="6" t="inlineStr">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B89" s="5" t="inlineStr">
         <is>
-          <t>QNTTY</t>
+          <t>SBSCRPTNS</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B90" s="5" t="inlineStr">
         <is>
-          <t>SBSCRPTNS</t>
+          <t>RDMPTNS</t>
         </is>
       </c>
       <c r="C90" s="6" t="inlineStr">
@@ -9592,32 +9592,32 @@
       </c>
     </row>
     <row r="91" ht="36" customHeight="1">
-      <c r="A91" s="5" t="inlineStr">
-        <is>
-          <t>ACC.HLDR</t>
-        </is>
-      </c>
-      <c r="B91" s="5" t="inlineStr">
-        <is>
-          <t>RDMPTNS</t>
-        </is>
-      </c>
-      <c r="C91" s="6" t="inlineStr">
+      <c r="A91" s="8" t="inlineStr">
+        <is>
+          <t>ACC.SHR_KEY</t>
+        </is>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
+        <is>
+          <t>IID</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
         <is>
           <t>ACC</t>
         </is>
       </c>
-      <c r="D91" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E91" s="7" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F91" s="6" t="inlineStr">
+      <c r="D91" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E91" s="10" t="inlineStr">
+        <is>
+          <t>SHR</t>
+        </is>
+      </c>
+      <c r="F91" s="9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="B92" s="8" t="inlineStr">
         <is>
-          <t>IID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="E92" s="10" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F92" s="9" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="B93" s="8" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FRQNCY</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="E93" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F93" s="9" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B94" s="8" t="inlineStr">
         <is>
-          <t>FRQNCY</t>
+          <t>BK_PRC</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -9705,12 +9705,12 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E94" s="10" t="inlineStr">
         <is>
-          <t>GEN_FRQNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F94" s="9" t="inlineStr">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="B95" s="8" t="inlineStr">
         <is>
-          <t>BK_PRC</t>
+          <t>INCM</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
@@ -9752,32 +9752,32 @@
       </c>
     </row>
     <row r="96" ht="36" customHeight="1">
-      <c r="A96" s="8" t="inlineStr">
-        <is>
-          <t>ACC.SHR_KEY</t>
-        </is>
-      </c>
-      <c r="B96" s="8" t="inlineStr">
-        <is>
-          <t>INCM</t>
-        </is>
-      </c>
-      <c r="C96" s="9" t="inlineStr">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>ACC.FND_KEY</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
         <is>
           <t>ACC</t>
         </is>
       </c>
-      <c r="D96" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E96" s="10" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F96" s="9" t="inlineStr">
+      <c r="D96" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E96" s="7" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B97" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F97" s="6" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="B98" s="5" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FRQNCY</t>
         </is>
       </c>
       <c r="C98" s="6" t="inlineStr">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="E98" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F98" s="6" t="inlineStr">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="B99" s="5" t="inlineStr">
         <is>
-          <t>FRQNCY</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
@@ -9865,47 +9865,47 @@
       </c>
       <c r="D99" s="6" t="inlineStr">
         <is>
+          <t>MEASURE</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="F99" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="36" customHeight="1">
+      <c r="A100" s="8" t="inlineStr">
+        <is>
+          <t>REF.MNGMNT</t>
+        </is>
+      </c>
+      <c r="B100" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>REF</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
           <t>DIMENSION</t>
         </is>
       </c>
-      <c r="E99" s="7" t="inlineStr">
-        <is>
-          <t>GEN_FRQNCY_ENUM</t>
-        </is>
-      </c>
-      <c r="F99" s="6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100" ht="36" customHeight="1">
-      <c r="A100" s="5" t="inlineStr">
-        <is>
-          <t>ACC.FND_KEY</t>
-        </is>
-      </c>
-      <c r="B100" s="5" t="inlineStr">
-        <is>
-          <t>FEES</t>
-        </is>
-      </c>
-      <c r="C100" s="6" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D100" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E100" s="7" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F100" s="6" t="inlineStr">
+      <c r="E100" s="10" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
+      <c r="F100" s="9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="B101" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
@@ -9929,17 +9929,17 @@
       </c>
       <c r="D101" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E101" s="10" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F101" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="B102" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B103" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>LEI_ID</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="E103" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>ASCIIL20</t>
         </is>
       </c>
       <c r="F103" s="9" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="B104" s="8" t="inlineStr">
         <is>
-          <t>LEI_ID</t>
+          <t>TAX_ID</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="E104" s="10" t="inlineStr">
         <is>
-          <t>ASCIIL20</t>
+          <t>ASCIIU31</t>
         </is>
       </c>
       <c r="F104" s="9" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B105" s="8" t="inlineStr">
         <is>
-          <t>TAX_ID</t>
+          <t>NBR_ID</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="B106" s="8" t="inlineStr">
         <is>
-          <t>NBR_ID</t>
+          <t>SPLT_FRM</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="E106" s="10" t="inlineStr">
         <is>
-          <t>ASCIIU31</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F106" s="9" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="B107" s="8" t="inlineStr">
         <is>
-          <t>SPLT_FRM</t>
+          <t>MRGD_WTH</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
@@ -10136,34 +10136,34 @@
       </c>
     </row>
     <row r="108" ht="36" customHeight="1">
-      <c r="A108" s="8" t="inlineStr">
-        <is>
-          <t>REF.MNGMNT</t>
-        </is>
-      </c>
-      <c r="B108" s="8" t="inlineStr">
-        <is>
-          <t>MRGD_WTH</t>
-        </is>
-      </c>
-      <c r="C108" s="9" t="inlineStr">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>REF.MNGMNT_DYNMC</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C108" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D108" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E108" s="10" t="inlineStr">
+      <c r="D108" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E108" s="7" t="inlineStr">
         <is>
           <t>ORG</t>
         </is>
       </c>
-      <c r="F108" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="F108" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="B109" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>VLD_FRM</t>
         </is>
       </c>
       <c r="C109" s="6" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="E109" s="7" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -10207,7 +10207,7 @@
       </c>
       <c r="B110" s="5" t="inlineStr">
         <is>
-          <t>VLD_FRM</t>
+          <t>VLD_T</t>
         </is>
       </c>
       <c r="C110" s="6" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="B111" s="5" t="inlineStr">
         <is>
-          <t>VLD_T</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="C111" s="6" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="D111" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>STR128</t>
         </is>
       </c>
       <c r="F111" s="6" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B112" s="5" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NM_LTN</t>
         </is>
       </c>
       <c r="C112" s="6" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="E112" s="7" t="inlineStr">
         <is>
-          <t>STR128</t>
+          <t>ASCIIU128</t>
         </is>
       </c>
       <c r="F112" s="6" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="B113" s="5" t="inlineStr">
         <is>
-          <t>NM_LTN</t>
+          <t>NM_SHRT</t>
         </is>
       </c>
       <c r="C113" s="6" t="inlineStr">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="E113" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU128</t>
+          <t>STR64</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="B114" s="5" t="inlineStr">
         <is>
-          <t>NM_SHRT</t>
+          <t>STRT</t>
         </is>
       </c>
       <c r="C114" s="6" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="B115" s="5" t="inlineStr">
         <is>
-          <t>STRT</t>
+          <t>STRT_LTN</t>
         </is>
       </c>
       <c r="C115" s="6" t="inlineStr">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="E115" s="7" t="inlineStr">
         <is>
-          <t>STR64</t>
+          <t>ASCIIU64</t>
         </is>
       </c>
       <c r="F115" s="6" t="inlineStr">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B116" s="5" t="inlineStr">
         <is>
-          <t>STRT_LTN</t>
+          <t>CTY</t>
         </is>
       </c>
       <c r="C116" s="6" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="E116" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU64</t>
+          <t>STR32</t>
         </is>
       </c>
       <c r="F116" s="6" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="B117" s="5" t="inlineStr">
         <is>
-          <t>CTY</t>
+          <t>CTY_LTN</t>
         </is>
       </c>
       <c r="C117" s="6" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="E117" s="7" t="inlineStr">
         <is>
-          <t>STR32</t>
+          <t>ASCIIU32</t>
         </is>
       </c>
       <c r="F117" s="6" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="B118" s="5" t="inlineStr">
         <is>
-          <t>CTY_LTN</t>
+          <t>PSTL_CD</t>
         </is>
       </c>
       <c r="C118" s="6" t="inlineStr">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="E118" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU32</t>
+          <t>STR16</t>
         </is>
       </c>
       <c r="F118" s="6" t="inlineStr">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="B119" s="5" t="inlineStr">
         <is>
-          <t>PSTL_CD</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C119" s="6" t="inlineStr">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="E119" s="7" t="inlineStr">
         <is>
-          <t>STR16</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="F119" s="6" t="inlineStr">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="B120" s="5" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="C120" s="6" t="inlineStr">
@@ -10540,9 +10540,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E120" s="7" t="inlineStr">
-        <is>
-          <t>URL</t>
+      <c r="E120" s="11" t="inlineStr">
+        <is>
+          <t>EMAIL_STR</t>
         </is>
       </c>
       <c r="F120" s="6" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="B121" s="5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>CNTRY_RSDNC</t>
         </is>
       </c>
       <c r="C121" s="6" t="inlineStr">
@@ -10572,9 +10572,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E121" s="11" t="inlineStr">
-        <is>
-          <t>EMAIL_STR</t>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>GEN_CNTRY_ENUM</t>
         </is>
       </c>
       <c r="F121" s="6" t="inlineStr">
@@ -10584,34 +10584,34 @@
       </c>
     </row>
     <row r="122" ht="36" customHeight="1">
-      <c r="A122" s="5" t="inlineStr">
-        <is>
-          <t>REF.MNGMNT_DYNMC</t>
-        </is>
-      </c>
-      <c r="B122" s="5" t="inlineStr">
-        <is>
-          <t>CNTRY_RSDNC</t>
-        </is>
-      </c>
-      <c r="C122" s="6" t="inlineStr">
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>REF.FND</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D122" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E122" s="7" t="inlineStr">
-        <is>
-          <t>GEN_CNTRY_ENUM</t>
-        </is>
-      </c>
-      <c r="F122" s="6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E122" s="10" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
+      <c r="F122" s="9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="B123" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
@@ -10633,17 +10633,17 @@
       </c>
       <c r="D123" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E123" s="10" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F123" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B124" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="B125" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>LEI_ID</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="E125" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>ASCIIL20</t>
         </is>
       </c>
       <c r="F125" s="9" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="B126" s="8" t="inlineStr">
         <is>
-          <t>LEI_ID</t>
+          <t>TAX_ID</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
@@ -10734,7 +10734,7 @@
       </c>
       <c r="E126" s="10" t="inlineStr">
         <is>
-          <t>ASCIIL20</t>
+          <t>ASCIII50</t>
         </is>
       </c>
       <c r="F126" s="9" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="B127" s="8" t="inlineStr">
         <is>
-          <t>TAX_ID</t>
+          <t>NBR_ID</t>
         </is>
       </c>
       <c r="C127" s="9" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="B128" s="8" t="inlineStr">
         <is>
-          <t>NBR_ID</t>
+          <t>SPLT_FRM</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="E128" s="10" t="inlineStr">
         <is>
-          <t>ASCIII50</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F128" s="9" t="inlineStr">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="B129" s="8" t="inlineStr">
         <is>
-          <t>SPLT_FRM</t>
+          <t>MRGD_WTH</t>
         </is>
       </c>
       <c r="C129" s="9" t="inlineStr">
@@ -10840,34 +10840,34 @@
       </c>
     </row>
     <row r="130" ht="36" customHeight="1">
-      <c r="A130" s="8" t="inlineStr">
-        <is>
-          <t>REF.FND</t>
-        </is>
-      </c>
-      <c r="B130" s="8" t="inlineStr">
-        <is>
-          <t>MRGD_WTH</t>
-        </is>
-      </c>
-      <c r="C130" s="9" t="inlineStr">
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>REF.FND_DYNMC</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D130" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E130" s="10" t="inlineStr">
+      <c r="D130" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E130" s="7" t="inlineStr">
         <is>
           <t>ORG</t>
         </is>
       </c>
-      <c r="F130" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="F130" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="B131" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>VLD_FRM</t>
         </is>
       </c>
       <c r="C131" s="6" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="E131" s="7" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F131" s="6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B132" s="5" t="inlineStr">
         <is>
-          <t>VLD_FRM</t>
+          <t>VLD_T</t>
         </is>
       </c>
       <c r="C132" s="6" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="B133" s="5" t="inlineStr">
         <is>
-          <t>VLD_T</t>
+          <t>RPRTD_BY</t>
         </is>
       </c>
       <c r="C133" s="6" t="inlineStr">
@@ -10953,12 +10953,12 @@
       </c>
       <c r="D133" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E133" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="F133" s="6" t="inlineStr">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="B134" s="5" t="inlineStr">
         <is>
-          <t>RPRTD_BY</t>
+          <t>MNGD_BY</t>
         </is>
       </c>
       <c r="C134" s="6" t="inlineStr">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="B135" s="5" t="inlineStr">
         <is>
-          <t>MNGD_BY</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="C135" s="6" t="inlineStr">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="E135" s="7" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>STR256</t>
         </is>
       </c>
       <c r="F135" s="6" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="B136" s="5" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NM_LTN</t>
         </is>
       </c>
       <c r="C136" s="6" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="E136" s="7" t="inlineStr">
         <is>
-          <t>STR256</t>
+          <t>ASCIIU255</t>
         </is>
       </c>
       <c r="F136" s="6" t="inlineStr">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="B137" s="5" t="inlineStr">
         <is>
-          <t>NM_LTN</t>
+          <t>NM_SHRT</t>
         </is>
       </c>
       <c r="C137" s="6" t="inlineStr">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="E137" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU255</t>
+          <t>STR64</t>
         </is>
       </c>
       <c r="F137" s="6" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="B138" s="5" t="inlineStr">
         <is>
-          <t>NM_SHRT</t>
+          <t>CNTRY_RSDNC</t>
         </is>
       </c>
       <c r="C138" s="6" t="inlineStr">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="E138" s="7" t="inlineStr">
         <is>
-          <t>STR64</t>
+          <t>GEN_CNTRY_ENUM</t>
         </is>
       </c>
       <c r="F138" s="6" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B139" s="5" t="inlineStr">
         <is>
-          <t>CNTRY_RSDNC</t>
+          <t>STRT</t>
         </is>
       </c>
       <c r="C139" s="6" t="inlineStr">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="E139" s="7" t="inlineStr">
         <is>
-          <t>GEN_CNTRY_ENUM</t>
+          <t>STR256</t>
         </is>
       </c>
       <c r="F139" s="6" t="inlineStr">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="B140" s="5" t="inlineStr">
         <is>
-          <t>STRT</t>
+          <t>STRT_LTN</t>
         </is>
       </c>
       <c r="C140" s="6" t="inlineStr">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="E140" s="7" t="inlineStr">
         <is>
-          <t>STR256</t>
+          <t>ASCIIU255</t>
         </is>
       </c>
       <c r="F140" s="6" t="inlineStr">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="B141" s="5" t="inlineStr">
         <is>
-          <t>STRT_LTN</t>
+          <t>CTY</t>
         </is>
       </c>
       <c r="C141" s="6" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="E141" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU255</t>
+          <t>STR32</t>
         </is>
       </c>
       <c r="F141" s="6" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B142" s="5" t="inlineStr">
         <is>
-          <t>CTY</t>
+          <t>CTY_LTN</t>
         </is>
       </c>
       <c r="C142" s="6" t="inlineStr">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="E142" s="7" t="inlineStr">
         <is>
-          <t>STR32</t>
+          <t>ASCIIU32</t>
         </is>
       </c>
       <c r="F142" s="6" t="inlineStr">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B143" s="5" t="inlineStr">
         <is>
-          <t>CTY_LTN</t>
+          <t>PSTL_CD</t>
         </is>
       </c>
       <c r="C143" s="6" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="E143" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU32</t>
+          <t>STR16</t>
         </is>
       </c>
       <c r="F143" s="6" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="B144" s="5" t="inlineStr">
         <is>
-          <t>PSTL_CD</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C144" s="6" t="inlineStr">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="E144" s="7" t="inlineStr">
         <is>
-          <t>STR16</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="F144" s="6" t="inlineStr">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="B145" s="5" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="C145" s="6" t="inlineStr">
@@ -11340,9 +11340,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E145" s="7" t="inlineStr">
-        <is>
-          <t>URL</t>
+      <c r="E145" s="11" t="inlineStr">
+        <is>
+          <t>EMAIL_STR</t>
         </is>
       </c>
       <c r="F145" s="6" t="inlineStr">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="B146" s="5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IS_LSTD</t>
         </is>
       </c>
       <c r="C146" s="6" t="inlineStr">
@@ -11372,9 +11372,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E146" s="11" t="inlineStr">
-        <is>
-          <t>EMAIL_STR</t>
+      <c r="E146" s="7" t="inlineStr">
+        <is>
+          <t>BOOL_ENUM</t>
         </is>
       </c>
       <c r="F146" s="6" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="B147" s="5" t="inlineStr">
         <is>
-          <t>IS_LSTD</t>
+          <t>IS_INCTV</t>
         </is>
       </c>
       <c r="C147" s="6" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B148" s="5" t="inlineStr">
         <is>
-          <t>IS_INCTV</t>
+          <t>IS_UNDR_LQDTN</t>
         </is>
       </c>
       <c r="C148" s="6" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="B149" s="5" t="inlineStr">
         <is>
-          <t>IS_UNDR_LQDTN</t>
+          <t>INSTTTNL_SCTR_CNTRL</t>
         </is>
       </c>
       <c r="C149" s="6" t="inlineStr">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="E149" s="7" t="inlineStr">
         <is>
-          <t>BOOL_ENUM</t>
+          <t>ORG_INSTTTNL_SCTR_CNTRL_ENUM</t>
         </is>
       </c>
       <c r="F149" s="6" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="B150" s="5" t="inlineStr">
         <is>
-          <t>INSTTTNL_SCTR_CNTRL</t>
+          <t>UNDR_UMBRLL_BY</t>
         </is>
       </c>
       <c r="C150" s="6" t="inlineStr">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="E150" s="7" t="inlineStr">
         <is>
-          <t>ORG_INSTTTNL_SCTR_CNTRL_ENUM</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="F150" s="6" t="inlineStr">
@@ -11519,7 +11519,7 @@
       </c>
       <c r="B151" s="5" t="inlineStr">
         <is>
-          <t>UNDR_UMBRLL_BY</t>
+          <t>LGL_TYP</t>
         </is>
       </c>
       <c r="C151" s="6" t="inlineStr">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="E151" s="7" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FND_LGL_TYP_ENUM</t>
         </is>
       </c>
       <c r="F151" s="6" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="B152" s="5" t="inlineStr">
         <is>
-          <t>LGL_TYP</t>
+          <t>INVSTMNT_PLCY</t>
         </is>
       </c>
       <c r="C152" s="6" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="E152" s="7" t="inlineStr">
         <is>
-          <t>FND_LGL_TYP_ENUM</t>
+          <t>FND_INVSTMNT_PLCY_ENUM</t>
         </is>
       </c>
       <c r="F152" s="6" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="B153" s="5" t="inlineStr">
         <is>
-          <t>INVSTMNT_PLCY</t>
+          <t>EQTY_TYP</t>
         </is>
       </c>
       <c r="C153" s="6" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="E153" s="7" t="inlineStr">
         <is>
-          <t>FND_INVSTMNT_PLCY_ENUM</t>
+          <t>FND_EQTY_TYP_ENUM</t>
         </is>
       </c>
       <c r="F153" s="6" t="inlineStr">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="B154" s="5" t="inlineStr">
         <is>
-          <t>EQTY_TYP</t>
+          <t>DSTRBTN_PLCY</t>
         </is>
       </c>
       <c r="C154" s="6" t="inlineStr">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="E154" s="7" t="inlineStr">
         <is>
-          <t>FND_EQTY_TYP_ENUM</t>
+          <t>FND_DSTRBTN_PLCY_ENUM</t>
         </is>
       </c>
       <c r="F154" s="6" t="inlineStr">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="B155" s="5" t="inlineStr">
         <is>
-          <t>DSTRBTN_PLCY</t>
+          <t>INVSTR_TYP</t>
         </is>
       </c>
       <c r="C155" s="6" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="E155" s="7" t="inlineStr">
         <is>
-          <t>FND_DSTRBTN_PLCY_ENUM</t>
+          <t>FND_INVSTR_TYP_ENUM</t>
         </is>
       </c>
       <c r="F155" s="6" t="inlineStr">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="B156" s="5" t="inlineStr">
         <is>
-          <t>INVSTR_TYP</t>
+          <t>GRN_TYP</t>
         </is>
       </c>
       <c r="C156" s="6" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="E156" s="7" t="inlineStr">
         <is>
-          <t>FND_INVSTR_TYP_ENUM</t>
+          <t>FND_GRN_TYP_ENUM</t>
         </is>
       </c>
       <c r="F156" s="6" t="inlineStr">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B157" s="5" t="inlineStr">
         <is>
-          <t>GRN_TYP</t>
+          <t>STRTGY</t>
         </is>
       </c>
       <c r="C157" s="6" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="E157" s="7" t="inlineStr">
         <is>
-          <t>FND_GRN_TYP_ENUM</t>
+          <t>FND_STRTGY_ENUM</t>
         </is>
       </c>
       <c r="F157" s="6" t="inlineStr">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="B158" s="5" t="inlineStr">
         <is>
-          <t>STRTGY</t>
+          <t>GGRPHCL_FCS</t>
         </is>
       </c>
       <c r="C158" s="6" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="E158" s="7" t="inlineStr">
         <is>
-          <t>FND_STRTGY_ENUM</t>
+          <t>FND_GGRPHCL_FCS_ENUM</t>
         </is>
       </c>
       <c r="F158" s="6" t="inlineStr">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="B159" s="5" t="inlineStr">
         <is>
-          <t>GGRPHCL_FCS</t>
+          <t>BND_FCS</t>
         </is>
       </c>
       <c r="C159" s="6" t="inlineStr">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="E159" s="7" t="inlineStr">
         <is>
-          <t>FND_GGRPHCL_FCS_ENUM</t>
+          <t>FND_BND_FCS_ENUM</t>
         </is>
       </c>
       <c r="F159" s="6" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="B160" s="5" t="inlineStr">
         <is>
-          <t>BND_FCS</t>
+          <t>RL_ESTT_TYP</t>
         </is>
       </c>
       <c r="C160" s="6" t="inlineStr">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="E160" s="7" t="inlineStr">
         <is>
-          <t>FND_BND_FCS_ENUM</t>
+          <t>FND_RL_ESTT_TYP_ENUM</t>
         </is>
       </c>
       <c r="F160" s="6" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="B161" s="5" t="inlineStr">
         <is>
-          <t>RL_ESTT_TYP</t>
+          <t>IS_FOF</t>
         </is>
       </c>
       <c r="C161" s="6" t="inlineStr">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="E161" s="7" t="inlineStr">
         <is>
-          <t>FND_RL_ESTT_TYP_ENUM</t>
+          <t>BOOL_ENUM</t>
         </is>
       </c>
       <c r="F161" s="6" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="B162" s="5" t="inlineStr">
         <is>
-          <t>IS_FOF</t>
+          <t>IS_ETF</t>
         </is>
       </c>
       <c r="C162" s="6" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B163" s="5" t="inlineStr">
         <is>
-          <t>IS_ETF</t>
+          <t>IS_PEF</t>
         </is>
       </c>
       <c r="C163" s="6" t="inlineStr">
@@ -11928,34 +11928,34 @@
       </c>
     </row>
     <row r="164" ht="36" customHeight="1">
-      <c r="A164" s="5" t="inlineStr">
-        <is>
-          <t>REF.FND_DYNMC</t>
-        </is>
-      </c>
-      <c r="B164" s="5" t="inlineStr">
-        <is>
-          <t>IS_PEF</t>
-        </is>
-      </c>
-      <c r="C164" s="6" t="inlineStr">
+      <c r="A164" s="8" t="inlineStr">
+        <is>
+          <t>REF.SELF_DBT</t>
+        </is>
+      </c>
+      <c r="B164" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C164" s="9" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D164" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E164" s="7" t="inlineStr">
-        <is>
-          <t>BOOL_ENUM</t>
-        </is>
-      </c>
-      <c r="F164" s="6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E164" s="10" t="inlineStr">
+        <is>
+          <t>DBT</t>
+        </is>
+      </c>
+      <c r="F164" s="9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="B165" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C165" s="9" t="inlineStr">
@@ -11977,17 +11977,17 @@
       </c>
       <c r="D165" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E165" s="10" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F165" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B166" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C166" s="9" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="B167" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>ORGNL_MTRTY</t>
         </is>
       </c>
       <c r="C167" s="9" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="B168" s="8" t="inlineStr">
         <is>
-          <t>ORGNL_MTRTY</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C168" s="9" t="inlineStr">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="E168" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F168" s="9" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="B169" s="8" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>ISS_PRC</t>
         </is>
       </c>
       <c r="C169" s="9" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="E169" s="10" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F169" s="9" t="inlineStr">
@@ -12127,7 +12127,7 @@
       </c>
       <c r="B170" s="8" t="inlineStr">
         <is>
-          <t>ISS_PRC</t>
+          <t>RDMPTN_PRC</t>
         </is>
       </c>
       <c r="C170" s="9" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="B171" s="8" t="inlineStr">
         <is>
-          <t>RDMPTN_PRC</t>
+          <t>MRKT</t>
         </is>
       </c>
       <c r="C171" s="9" t="inlineStr">
@@ -12174,7 +12174,7 @@
       </c>
       <c r="E171" s="10" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>GEN_MRKT_ENUM</t>
         </is>
       </c>
       <c r="F171" s="9" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="B172" s="8" t="inlineStr">
         <is>
-          <t>MRKT</t>
+          <t>ACCRL_STRTDT</t>
         </is>
       </c>
       <c r="C172" s="9" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="E172" s="10" t="inlineStr">
         <is>
-          <t>GEN_MRKT_ENUM</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F172" s="9" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B173" s="8" t="inlineStr">
         <is>
-          <t>ACCRL_STRTDT</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C173" s="9" t="inlineStr">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="E173" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>DBT_TYP_ENUM</t>
         </is>
       </c>
       <c r="F173" s="9" t="inlineStr">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B174" s="8" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>GRNT_LVL</t>
         </is>
       </c>
       <c r="C174" s="9" t="inlineStr">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="E174" s="10" t="inlineStr">
         <is>
-          <t>DBT_TYP_ENUM</t>
+          <t>DBT_GRNT_LVL_ENUM</t>
         </is>
       </c>
       <c r="F174" s="9" t="inlineStr">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="B175" s="8" t="inlineStr">
         <is>
-          <t>GRNT_LVL</t>
+          <t>RNK_LVL</t>
         </is>
       </c>
       <c r="C175" s="9" t="inlineStr">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="E175" s="10" t="inlineStr">
         <is>
-          <t>DBT_GRNT_LVL_ENUM</t>
+          <t>DBT_RNK_LVL_ENUM</t>
         </is>
       </c>
       <c r="F175" s="9" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="B176" s="8" t="inlineStr">
         <is>
-          <t>RNK_LVL</t>
+          <t>SCRTY_LVL</t>
         </is>
       </c>
       <c r="C176" s="9" t="inlineStr">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="E176" s="10" t="inlineStr">
         <is>
-          <t>DBT_RNK_LVL_ENUM</t>
+          <t>DBT_SCRTY_LVL_ENUM</t>
         </is>
       </c>
       <c r="F176" s="9" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B177" s="8" t="inlineStr">
         <is>
-          <t>SCRTY_LVL</t>
+          <t>IS_SCRTZTN</t>
         </is>
       </c>
       <c r="C177" s="9" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="E177" s="10" t="inlineStr">
         <is>
-          <t>DBT_SCRTY_LVL_ENUM</t>
+          <t>BOOL_ENUM</t>
         </is>
       </c>
       <c r="F177" s="9" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B178" s="8" t="inlineStr">
         <is>
-          <t>IS_SCRTZTN</t>
+          <t>SCRTZTN_TYP</t>
         </is>
       </c>
       <c r="C178" s="9" t="inlineStr">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="E178" s="10" t="inlineStr">
         <is>
-          <t>BOOL_ENUM</t>
+          <t>DBT_SCRTZN_TYP_ENUM</t>
         </is>
       </c>
       <c r="F178" s="9" t="inlineStr">
@@ -12415,7 +12415,7 @@
       </c>
       <c r="B179" s="8" t="inlineStr">
         <is>
-          <t>SCRTZTN_TYP</t>
+          <t>IS_CVRD</t>
         </is>
       </c>
       <c r="C179" s="9" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="E179" s="10" t="inlineStr">
         <is>
-          <t>DBT_SCRTZN_TYP_ENUM</t>
+          <t>BOOL_ENUM</t>
         </is>
       </c>
       <c r="F179" s="9" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="B180" s="8" t="inlineStr">
         <is>
-          <t>IS_CVRD</t>
+          <t>CVRD_TYP</t>
         </is>
       </c>
       <c r="C180" s="9" t="inlineStr">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="E180" s="10" t="inlineStr">
         <is>
-          <t>BOOL_ENUM</t>
+          <t>DBT_CVRD_TYP_ENUM</t>
         </is>
       </c>
       <c r="F180" s="9" t="inlineStr">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="B181" s="8" t="inlineStr">
         <is>
-          <t>CVRD_TYP</t>
+          <t>CPN_TYP</t>
         </is>
       </c>
       <c r="C181" s="9" t="inlineStr">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="E181" s="10" t="inlineStr">
         <is>
-          <t>DBT_CVRD_TYP_ENUM</t>
+          <t>DBT_CPN_TYP_ENUM</t>
         </is>
       </c>
       <c r="F181" s="9" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="B182" s="8" t="inlineStr">
         <is>
-          <t>CPN_TYP</t>
+          <t>CPN_CRRNCY</t>
         </is>
       </c>
       <c r="C182" s="9" t="inlineStr">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="E182" s="10" t="inlineStr">
         <is>
-          <t>DBT_CPN_TYP_ENUM</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F182" s="9" t="inlineStr">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="B183" s="8" t="inlineStr">
         <is>
-          <t>CPN_CRRNCY</t>
+          <t>CPN_FRQNCY</t>
         </is>
       </c>
       <c r="C183" s="9" t="inlineStr">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="E183" s="10" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>DBT_CPN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F183" s="9" t="inlineStr">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="B184" s="8" t="inlineStr">
         <is>
-          <t>CPN_FRQNCY</t>
+          <t>CPN_SPRD</t>
         </is>
       </c>
       <c r="C184" s="9" t="inlineStr">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="E184" s="10" t="inlineStr">
         <is>
-          <t>DBT_CPN_FRQNCY_ENUM</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="F184" s="9" t="inlineStr">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="B185" s="8" t="inlineStr">
         <is>
-          <t>CPN_SPRD</t>
+          <t>CPN_MLTPLR</t>
         </is>
       </c>
       <c r="C185" s="9" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="E185" s="10" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F185" s="9" t="inlineStr">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="B186" s="8" t="inlineStr">
         <is>
-          <t>CPN_MLTPLR</t>
+          <t>CPN_CP</t>
         </is>
       </c>
       <c r="C186" s="9" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="B187" s="8" t="inlineStr">
         <is>
-          <t>CPN_CP</t>
+          <t>CPN_FLR</t>
         </is>
       </c>
       <c r="C187" s="9" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B188" s="8" t="inlineStr">
         <is>
-          <t>CPN_FLR</t>
+          <t>FRST_CPN_DT</t>
         </is>
       </c>
       <c r="C188" s="9" t="inlineStr">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="E188" s="10" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F188" s="9" t="inlineStr">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="B189" s="8" t="inlineStr">
         <is>
-          <t>FRST_CPN_DT</t>
+          <t>LST_CPN_DT</t>
         </is>
       </c>
       <c r="C189" s="9" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="B190" s="8" t="inlineStr">
         <is>
-          <t>LST_CPN_DT</t>
+          <t>UNDRLYNG</t>
         </is>
       </c>
       <c r="C190" s="9" t="inlineStr">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="E190" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="F190" s="9" t="inlineStr">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="B191" s="8" t="inlineStr">
         <is>
-          <t>UNDRLYNG</t>
+          <t>MNMM_INVSTMNT</t>
         </is>
       </c>
       <c r="C191" s="9" t="inlineStr">
@@ -12814,7 +12814,7 @@
       </c>
       <c r="E191" s="10" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F191" s="9" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="B192" s="8" t="inlineStr">
         <is>
-          <t>MNMM_INVSTMNT</t>
+          <t>IS_PRVT</t>
         </is>
       </c>
       <c r="C192" s="9" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="E192" s="10" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>BOOL_ENUM</t>
         </is>
       </c>
       <c r="F192" s="9" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="B193" s="8" t="inlineStr">
         <is>
-          <t>IS_PRVT</t>
+          <t>RSTRCTRD_T</t>
         </is>
       </c>
       <c r="C193" s="9" t="inlineStr">
@@ -12878,7 +12878,7 @@
       </c>
       <c r="E193" s="10" t="inlineStr">
         <is>
-          <t>BOOL_ENUM</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="F193" s="9" t="inlineStr">
@@ -12895,7 +12895,7 @@
       </c>
       <c r="B194" s="8" t="inlineStr">
         <is>
-          <t>RSTRCTRD_T</t>
+          <t>RSTRCTRD_FRM</t>
         </is>
       </c>
       <c r="C194" s="9" t="inlineStr">
@@ -12910,44 +12910,44 @@
       </c>
       <c r="E194" s="10" t="inlineStr">
         <is>
+          <t>LON</t>
+        </is>
+      </c>
+      <c r="F194" s="9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="36" customHeight="1">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>REF.SELF_DBT_DYNMC</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C195" s="6" t="inlineStr">
+        <is>
+          <t>REF</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E195" s="7" t="inlineStr">
+        <is>
           <t>DBT</t>
         </is>
       </c>
-      <c r="F194" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="195" ht="36" customHeight="1">
-      <c r="A195" s="8" t="inlineStr">
-        <is>
-          <t>REF.SELF_DBT</t>
-        </is>
-      </c>
-      <c r="B195" s="8" t="inlineStr">
-        <is>
-          <t>RSTRCTRD_FRM</t>
-        </is>
-      </c>
-      <c r="C195" s="9" t="inlineStr">
-        <is>
-          <t>REF</t>
-        </is>
-      </c>
-      <c r="D195" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E195" s="10" t="inlineStr">
-        <is>
-          <t>LON</t>
-        </is>
-      </c>
-      <c r="F195" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="F195" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -12959,7 +12959,7 @@
       </c>
       <c r="B196" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>VLD_FRM</t>
         </is>
       </c>
       <c r="C196" s="6" t="inlineStr">
@@ -12974,12 +12974,12 @@
       </c>
       <c r="E196" s="7" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F196" s="6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="B197" s="5" t="inlineStr">
         <is>
-          <t>VLD_FRM</t>
+          <t>VLD_T</t>
         </is>
       </c>
       <c r="C197" s="6" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B198" s="5" t="inlineStr">
         <is>
-          <t>VLD_T</t>
+          <t>NM_LTN</t>
         </is>
       </c>
       <c r="C198" s="6" t="inlineStr">
@@ -13033,12 +13033,12 @@
       </c>
       <c r="D198" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E198" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>ASCIIU128</t>
         </is>
       </c>
       <c r="F198" s="6" t="inlineStr">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B199" s="5" t="inlineStr">
         <is>
-          <t>NM_LTN</t>
+          <t>NM_SHRT</t>
         </is>
       </c>
       <c r="C199" s="6" t="inlineStr">
@@ -13070,7 +13070,7 @@
       </c>
       <c r="E199" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU128</t>
+          <t>STR64</t>
         </is>
       </c>
       <c r="F199" s="6" t="inlineStr">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="B200" s="5" t="inlineStr">
         <is>
-          <t>NM_SHRT</t>
+          <t>STTS</t>
         </is>
       </c>
       <c r="C200" s="6" t="inlineStr">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="E200" s="7" t="inlineStr">
         <is>
-          <t>STR64</t>
+          <t>DBT_STTS_ENUM</t>
         </is>
       </c>
       <c r="F200" s="6" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="B201" s="5" t="inlineStr">
         <is>
-          <t>STTS</t>
+          <t>MTRTY_DT</t>
         </is>
       </c>
       <c r="C201" s="6" t="inlineStr">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="E201" s="7" t="inlineStr">
         <is>
-          <t>DBT_STTS_ENUM</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F201" s="6" t="inlineStr">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="B202" s="5" t="inlineStr">
         <is>
-          <t>MTRTY_DT</t>
+          <t>ISSD_BY</t>
         </is>
       </c>
       <c r="C202" s="6" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="E202" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F202" s="6" t="inlineStr">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="B203" s="5" t="inlineStr">
         <is>
-          <t>ISSD_BY</t>
+          <t>CFI</t>
         </is>
       </c>
       <c r="C203" s="6" t="inlineStr">
@@ -13198,7 +13198,7 @@
       </c>
       <c r="E203" s="7" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>ASCIIF6</t>
         </is>
       </c>
       <c r="F203" s="6" t="inlineStr">
@@ -13208,34 +13208,34 @@
       </c>
     </row>
     <row r="204" ht="36" customHeight="1">
-      <c r="A204" s="5" t="inlineStr">
-        <is>
-          <t>REF.SELF_DBT_DYNMC</t>
-        </is>
-      </c>
-      <c r="B204" s="5" t="inlineStr">
-        <is>
-          <t>CFI</t>
-        </is>
-      </c>
-      <c r="C204" s="6" t="inlineStr">
+      <c r="A204" s="8" t="inlineStr">
+        <is>
+          <t>REF.SELF_DBT_OUTSTNDNG_CHNG</t>
+        </is>
+      </c>
+      <c r="B204" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C204" s="9" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D204" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E204" s="7" t="inlineStr">
-        <is>
-          <t>ASCIIF6</t>
-        </is>
-      </c>
-      <c r="F204" s="6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D204" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E204" s="10" t="inlineStr">
+        <is>
+          <t>DBT</t>
+        </is>
+      </c>
+      <c r="F204" s="9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="B205" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="C205" s="9" t="inlineStr">
@@ -13262,7 +13262,7 @@
       </c>
       <c r="E205" s="10" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>DBT_OUTSTNDNG_CHN_TYP_ENUM</t>
         </is>
       </c>
       <c r="F205" s="9" t="inlineStr">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="B206" s="8" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C206" s="9" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="E206" s="10" t="inlineStr">
         <is>
-          <t>DBT_OUTSTNDNG_CHN_TYP_ENUM</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F206" s="9" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="B207" s="8" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>AMNT</t>
         </is>
       </c>
       <c r="C207" s="9" t="inlineStr">
@@ -13321,12 +13321,12 @@
       </c>
       <c r="D207" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E207" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F207" s="9" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="B208" s="8" t="inlineStr">
         <is>
-          <t>AMNT</t>
+          <t>PRC</t>
         </is>
       </c>
       <c r="C208" s="9" t="inlineStr">
@@ -13368,32 +13368,32 @@
       </c>
     </row>
     <row r="209" ht="36" customHeight="1">
-      <c r="A209" s="8" t="inlineStr">
-        <is>
-          <t>REF.SELF_DBT_OUTSTNDNG_CHNG</t>
-        </is>
-      </c>
-      <c r="B209" s="8" t="inlineStr">
-        <is>
-          <t>PRC</t>
-        </is>
-      </c>
-      <c r="C209" s="9" t="inlineStr">
+      <c r="A209" s="5" t="inlineStr">
+        <is>
+          <t>REF.SELF_DBT_CPN</t>
+        </is>
+      </c>
+      <c r="B209" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C209" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D209" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E209" s="10" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F209" s="9" t="inlineStr">
+      <c r="D209" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E209" s="7" t="inlineStr">
+        <is>
+          <t>DBT</t>
+        </is>
+      </c>
+      <c r="F209" s="6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="B210" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C210" s="6" t="inlineStr">
@@ -13422,7 +13422,7 @@
       </c>
       <c r="E210" s="7" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F210" s="6" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="B211" s="5" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="C211" s="6" t="inlineStr">
@@ -13449,47 +13449,47 @@
       </c>
       <c r="D211" s="6" t="inlineStr">
         <is>
+          <t>MEASURE</t>
+        </is>
+      </c>
+      <c r="E211" s="7" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="F211" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="36" customHeight="1">
+      <c r="A212" s="8" t="inlineStr">
+        <is>
+          <t>REF.SELF_SHR</t>
+        </is>
+      </c>
+      <c r="B212" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C212" s="9" t="inlineStr">
+        <is>
+          <t>REF</t>
+        </is>
+      </c>
+      <c r="D212" s="9" t="inlineStr">
+        <is>
           <t>DIMENSION</t>
         </is>
       </c>
-      <c r="E211" s="7" t="inlineStr">
-        <is>
-          <t>DATETIME</t>
-        </is>
-      </c>
-      <c r="F211" s="6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="212" ht="36" customHeight="1">
-      <c r="A212" s="5" t="inlineStr">
-        <is>
-          <t>REF.SELF_DBT_CPN</t>
-        </is>
-      </c>
-      <c r="B212" s="5" t="inlineStr">
-        <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="C212" s="6" t="inlineStr">
-        <is>
-          <t>REF</t>
-        </is>
-      </c>
-      <c r="D212" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E212" s="7" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F212" s="6" t="inlineStr">
+      <c r="E212" s="10" t="inlineStr">
+        <is>
+          <t>SHR</t>
+        </is>
+      </c>
+      <c r="F212" s="9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -13503,7 +13503,7 @@
       </c>
       <c r="B213" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C213" s="9" t="inlineStr">
@@ -13513,17 +13513,17 @@
       </c>
       <c r="D213" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E213" s="10" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F213" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="B214" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C214" s="9" t="inlineStr">
@@ -13567,7 +13567,7 @@
       </c>
       <c r="B215" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C215" s="9" t="inlineStr">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="E215" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F215" s="9" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="B216" s="8" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>MRKT</t>
         </is>
       </c>
       <c r="C216" s="9" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="E216" s="10" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>GEN_MRKT_ENUM</t>
         </is>
       </c>
       <c r="F216" s="9" t="inlineStr">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="B217" s="8" t="inlineStr">
         <is>
-          <t>MRKT</t>
+          <t>RSTRCTRD_T</t>
         </is>
       </c>
       <c r="C217" s="9" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="E217" s="10" t="inlineStr">
         <is>
-          <t>GEN_MRKT_ENUM</t>
+          <t>SHR</t>
         </is>
       </c>
       <c r="F217" s="9" t="inlineStr">
@@ -13656,34 +13656,34 @@
       </c>
     </row>
     <row r="218" ht="36" customHeight="1">
-      <c r="A218" s="8" t="inlineStr">
-        <is>
-          <t>REF.SELF_SHR</t>
-        </is>
-      </c>
-      <c r="B218" s="8" t="inlineStr">
-        <is>
-          <t>RSTRCTRD_T</t>
-        </is>
-      </c>
-      <c r="C218" s="9" t="inlineStr">
+      <c r="A218" s="5" t="inlineStr">
+        <is>
+          <t>REF.SELF_SHR_DYNMC</t>
+        </is>
+      </c>
+      <c r="B218" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C218" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D218" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E218" s="10" t="inlineStr">
+      <c r="D218" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E218" s="7" t="inlineStr">
         <is>
           <t>SHR</t>
         </is>
       </c>
-      <c r="F218" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="F218" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="B219" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>VLD_FRM</t>
         </is>
       </c>
       <c r="C219" s="6" t="inlineStr">
@@ -13710,12 +13710,12 @@
       </c>
       <c r="E219" s="7" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F219" s="6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B220" s="5" t="inlineStr">
         <is>
-          <t>VLD_FRM</t>
+          <t>VLD_T</t>
         </is>
       </c>
       <c r="C220" s="6" t="inlineStr">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="B221" s="5" t="inlineStr">
         <is>
-          <t>VLD_T</t>
+          <t>NM_LTN</t>
         </is>
       </c>
       <c r="C221" s="6" t="inlineStr">
@@ -13769,12 +13769,12 @@
       </c>
       <c r="D221" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E221" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>ASCIIU128</t>
         </is>
       </c>
       <c r="F221" s="6" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="B222" s="5" t="inlineStr">
         <is>
-          <t>NM_LTN</t>
+          <t>NM_SHRT</t>
         </is>
       </c>
       <c r="C222" s="6" t="inlineStr">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="E222" s="7" t="inlineStr">
         <is>
-          <t>ASCIIU128</t>
+          <t>STR64</t>
         </is>
       </c>
       <c r="F222" s="6" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B223" s="5" t="inlineStr">
         <is>
-          <t>NM_SHRT</t>
+          <t>ISSD_BY</t>
         </is>
       </c>
       <c r="C223" s="6" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="E223" s="7" t="inlineStr">
         <is>
-          <t>STR64</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="F223" s="6" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="B224" s="5" t="inlineStr">
         <is>
-          <t>ISSD_BY</t>
+          <t>NMNL_PRC</t>
         </is>
       </c>
       <c r="C224" s="6" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="E224" s="7" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F224" s="6" t="inlineStr">
@@ -13887,7 +13887,7 @@
       </c>
       <c r="B225" s="5" t="inlineStr">
         <is>
-          <t>NMNL_PRC</t>
+          <t>CFI</t>
         </is>
       </c>
       <c r="C225" s="6" t="inlineStr">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="E225" s="7" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>ASCIIF6</t>
         </is>
       </c>
       <c r="F225" s="6" t="inlineStr">
@@ -13919,7 +13919,7 @@
       </c>
       <c r="B226" s="5" t="inlineStr">
         <is>
-          <t>CFI</t>
+          <t>RDMPTN_FRQNCY</t>
         </is>
       </c>
       <c r="C226" s="6" t="inlineStr">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="E226" s="7" t="inlineStr">
         <is>
-          <t>ASCIIF6</t>
+          <t>OTHER_RDMPTN_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F226" s="6" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="B227" s="5" t="inlineStr">
         <is>
-          <t>RDMPTN_FRQNCY</t>
+          <t>MNMM_AMNT</t>
         </is>
       </c>
       <c r="C227" s="6" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="E227" s="7" t="inlineStr">
         <is>
-          <t>OTHER_RDMPTN_FRQNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F227" s="6" t="inlineStr">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B228" s="5" t="inlineStr">
         <is>
-          <t>MNMM_AMNT</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C228" s="6" t="inlineStr">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="E228" s="7" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>SHR_TYP_ENUM</t>
         </is>
       </c>
       <c r="F228" s="6" t="inlineStr">
@@ -14008,34 +14008,34 @@
       </c>
     </row>
     <row r="229" ht="36" customHeight="1">
-      <c r="A229" s="5" t="inlineStr">
-        <is>
-          <t>REF.SELF_SHR_DYNMC</t>
-        </is>
-      </c>
-      <c r="B229" s="5" t="inlineStr">
-        <is>
-          <t>TYP</t>
-        </is>
-      </c>
-      <c r="C229" s="6" t="inlineStr">
+      <c r="A229" s="8" t="inlineStr">
+        <is>
+          <t>REF.SELF_SHR_DVDND</t>
+        </is>
+      </c>
+      <c r="B229" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C229" s="9" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D229" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E229" s="7" t="inlineStr">
-        <is>
-          <t>SHR_TYP_ENUM</t>
-        </is>
-      </c>
-      <c r="F229" s="6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D229" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E229" s="10" t="inlineStr">
+        <is>
+          <t>SHR</t>
+        </is>
+      </c>
+      <c r="F229" s="9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
       </c>
       <c r="B230" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C230" s="9" t="inlineStr">
@@ -14062,7 +14062,7 @@
       </c>
       <c r="E230" s="10" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F230" s="9" t="inlineStr">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="B231" s="8" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>EX_DT</t>
         </is>
       </c>
       <c r="C231" s="9" t="inlineStr">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="D231" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E231" s="10" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="B232" s="8" t="inlineStr">
         <is>
-          <t>EX_DT</t>
+          <t>DCLRTN_DT</t>
         </is>
       </c>
       <c r="C232" s="9" t="inlineStr">
@@ -14143,7 +14143,7 @@
       </c>
       <c r="B233" s="8" t="inlineStr">
         <is>
-          <t>DCLRTN_DT</t>
+          <t>PYMNT_DT</t>
         </is>
       </c>
       <c r="C233" s="9" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="B234" s="8" t="inlineStr">
         <is>
-          <t>PYMNT_DT</t>
+          <t>FRQNCY</t>
         </is>
       </c>
       <c r="C234" s="9" t="inlineStr">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="E234" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>DVDND_CSTM_FRQNCY_ENUM</t>
         </is>
       </c>
       <c r="F234" s="9" t="inlineStr">
@@ -14207,7 +14207,7 @@
       </c>
       <c r="B235" s="8" t="inlineStr">
         <is>
-          <t>FRQNCY</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C235" s="9" t="inlineStr">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="E235" s="10" t="inlineStr">
         <is>
-          <t>DVDND_CSTM_FRQNCY_ENUM</t>
+          <t>DVDND_TYP_ENUM</t>
         </is>
       </c>
       <c r="F235" s="9" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="B236" s="8" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C236" s="9" t="inlineStr">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="E236" s="10" t="inlineStr">
         <is>
-          <t>DVDND_TYP_ENUM</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F236" s="9" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="B237" s="8" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>AMNT</t>
         </is>
       </c>
       <c r="C237" s="9" t="inlineStr">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="E237" s="10" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F237" s="9" t="inlineStr">
@@ -14296,32 +14296,32 @@
       </c>
     </row>
     <row r="238" ht="36" customHeight="1">
-      <c r="A238" s="8" t="inlineStr">
-        <is>
-          <t>REF.SELF_SHR_DVDND</t>
-        </is>
-      </c>
-      <c r="B238" s="8" t="inlineStr">
-        <is>
-          <t>AMNT</t>
-        </is>
-      </c>
-      <c r="C238" s="9" t="inlineStr">
+      <c r="A238" s="5" t="inlineStr">
+        <is>
+          <t>REF.SELF_SHR_SPLT</t>
+        </is>
+      </c>
+      <c r="B238" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C238" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D238" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E238" s="10" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F238" s="9" t="inlineStr">
+      <c r="D238" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E238" s="7" t="inlineStr">
+        <is>
+          <t>SHR</t>
+        </is>
+      </c>
+      <c r="F238" s="6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="B239" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="C239" s="6" t="inlineStr">
@@ -14350,7 +14350,7 @@
       </c>
       <c r="E239" s="7" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F239" s="6" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B240" s="5" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FCTR</t>
         </is>
       </c>
       <c r="C240" s="6" t="inlineStr">
@@ -14377,47 +14377,47 @@
       </c>
       <c r="D240" s="6" t="inlineStr">
         <is>
+          <t>MEASURE</t>
+        </is>
+      </c>
+      <c r="E240" s="7" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="F240" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" ht="36" customHeight="1">
+      <c r="A241" s="8" t="inlineStr">
+        <is>
+          <t>REF.CNTRPRTY</t>
+        </is>
+      </c>
+      <c r="B241" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C241" s="9" t="inlineStr">
+        <is>
+          <t>REF</t>
+        </is>
+      </c>
+      <c r="D241" s="9" t="inlineStr">
+        <is>
           <t>DIMENSION</t>
         </is>
       </c>
-      <c r="E240" s="7" t="inlineStr">
-        <is>
-          <t>DATETIME</t>
-        </is>
-      </c>
-      <c r="F240" s="6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="241" ht="36" customHeight="1">
-      <c r="A241" s="5" t="inlineStr">
-        <is>
-          <t>REF.SELF_SHR_SPLT</t>
-        </is>
-      </c>
-      <c r="B241" s="5" t="inlineStr">
-        <is>
-          <t>FCTR</t>
-        </is>
-      </c>
-      <c r="C241" s="6" t="inlineStr">
-        <is>
-          <t>REF</t>
-        </is>
-      </c>
-      <c r="D241" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E241" s="7" t="inlineStr">
-        <is>
-          <t>FLOAT</t>
-        </is>
-      </c>
-      <c r="F241" s="6" t="inlineStr">
+      <c r="E241" s="10" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
+      <c r="F241" s="9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="B242" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C242" s="9" t="inlineStr">
@@ -14441,17 +14441,17 @@
       </c>
       <c r="D242" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E242" s="10" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F242" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B243" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C243" s="9" t="inlineStr">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="B244" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>NM_LTN</t>
         </is>
       </c>
       <c r="C244" s="9" t="inlineStr">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="E244" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>STR128</t>
         </is>
       </c>
       <c r="F244" s="9" t="inlineStr">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="B245" s="8" t="inlineStr">
         <is>
-          <t>NM_LTN</t>
+          <t>CNTRY_RSDNC</t>
         </is>
       </c>
       <c r="C245" s="9" t="inlineStr">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="E245" s="10" t="inlineStr">
         <is>
-          <t>STR128</t>
+          <t>GEN_CNTRY_ENUM</t>
         </is>
       </c>
       <c r="F245" s="9" t="inlineStr">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="B246" s="8" t="inlineStr">
         <is>
-          <t>CNTRY_RSDNC</t>
+          <t>INSTTTNL_SCTR</t>
         </is>
       </c>
       <c r="C246" s="9" t="inlineStr">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="E246" s="10" t="inlineStr">
         <is>
-          <t>GEN_CNTRY_ENUM</t>
+          <t>ORG_INSTTTNL_SCTR_ENUM</t>
         </is>
       </c>
       <c r="F246" s="9" t="inlineStr">
@@ -14584,34 +14584,34 @@
       </c>
     </row>
     <row r="247" ht="36" customHeight="1">
-      <c r="A247" s="8" t="inlineStr">
-        <is>
-          <t>REF.CNTRPRTY</t>
-        </is>
-      </c>
-      <c r="B247" s="8" t="inlineStr">
-        <is>
-          <t>INSTTTNL_SCTR</t>
-        </is>
-      </c>
-      <c r="C247" s="9" t="inlineStr">
+      <c r="A247" s="5" t="inlineStr">
+        <is>
+          <t>REF.DPST</t>
+        </is>
+      </c>
+      <c r="B247" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C247" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D247" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E247" s="10" t="inlineStr">
-        <is>
-          <t>ORG_INSTTTNL_SCTR_ENUM</t>
-        </is>
-      </c>
-      <c r="F247" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D247" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E247" s="7" t="inlineStr">
+        <is>
+          <t>DEP_</t>
+        </is>
+      </c>
+      <c r="F247" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="B248" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C248" s="6" t="inlineStr">
@@ -14633,17 +14633,17 @@
       </c>
       <c r="D248" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E248" s="7" t="inlineStr">
         <is>
-          <t>DEP_</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F248" s="6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="B249" s="5" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C249" s="6" t="inlineStr">
@@ -14687,7 +14687,7 @@
       </c>
       <c r="B250" s="5" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C250" s="6" t="inlineStr">
@@ -14702,7 +14702,7 @@
       </c>
       <c r="E250" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>DEP_TYP_ENUM</t>
         </is>
       </c>
       <c r="F250" s="6" t="inlineStr">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="B251" s="5" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>NTC</t>
         </is>
       </c>
       <c r="C251" s="6" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="E251" s="7" t="inlineStr">
         <is>
-          <t>DEP_TYP_ENUM</t>
+          <t>DEP_NTC_ENUM</t>
         </is>
       </c>
       <c r="F251" s="6" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="B252" s="5" t="inlineStr">
         <is>
-          <t>NTC</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C252" s="6" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="E252" s="7" t="inlineStr">
         <is>
-          <t>DEP_NTC_ENUM</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F252" s="6" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="B253" s="5" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>OAID</t>
         </is>
       </c>
       <c r="C253" s="6" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="E253" s="7" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F253" s="6" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="B254" s="5" t="inlineStr">
         <is>
-          <t>OAID</t>
+          <t>CNTRPRTY</t>
         </is>
       </c>
       <c r="C254" s="6" t="inlineStr">
@@ -14840,34 +14840,34 @@
       </c>
     </row>
     <row r="255" ht="36" customHeight="1">
-      <c r="A255" s="5" t="inlineStr">
-        <is>
-          <t>REF.DPST</t>
-        </is>
-      </c>
-      <c r="B255" s="5" t="inlineStr">
-        <is>
-          <t>CNTRPRTY</t>
-        </is>
-      </c>
-      <c r="C255" s="6" t="inlineStr">
+      <c r="A255" s="8" t="inlineStr">
+        <is>
+          <t>REF.SFT</t>
+        </is>
+      </c>
+      <c r="B255" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C255" s="9" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D255" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E255" s="7" t="inlineStr">
-        <is>
-          <t>ORG</t>
-        </is>
-      </c>
-      <c r="F255" s="6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D255" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E255" s="10" t="inlineStr">
+        <is>
+          <t>SFT</t>
+        </is>
+      </c>
+      <c r="F255" s="9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="B256" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C256" s="9" t="inlineStr">
@@ -14889,17 +14889,17 @@
       </c>
       <c r="D256" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E256" s="10" t="inlineStr">
         <is>
-          <t>SFT</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F256" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="B257" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C257" s="9" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B258" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C258" s="9" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="E258" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F258" s="9" t="inlineStr">
@@ -14975,7 +14975,7 @@
       </c>
       <c r="B259" s="8" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C259" s="9" t="inlineStr">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="E259" s="10" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>SFT_TYP_ENUM</t>
         </is>
       </c>
       <c r="F259" s="9" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="B260" s="8" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>OAID</t>
         </is>
       </c>
       <c r="C260" s="9" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="E260" s="10" t="inlineStr">
         <is>
-          <t>SFT_TYP_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F260" s="9" t="inlineStr">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="B261" s="8" t="inlineStr">
         <is>
-          <t>OAID</t>
+          <t>CNTRPRTY</t>
         </is>
       </c>
       <c r="C261" s="9" t="inlineStr">
@@ -15064,34 +15064,34 @@
       </c>
     </row>
     <row r="262" ht="36" customHeight="1">
-      <c r="A262" s="8" t="inlineStr">
-        <is>
-          <t>REF.SFT</t>
-        </is>
-      </c>
-      <c r="B262" s="8" t="inlineStr">
-        <is>
-          <t>CNTRPRTY</t>
-        </is>
-      </c>
-      <c r="C262" s="9" t="inlineStr">
+      <c r="A262" s="5" t="inlineStr">
+        <is>
+          <t>REF.LN</t>
+        </is>
+      </c>
+      <c r="B262" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C262" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D262" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E262" s="10" t="inlineStr">
-        <is>
-          <t>ORG</t>
-        </is>
-      </c>
-      <c r="F262" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D262" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E262" s="7" t="inlineStr">
+        <is>
+          <t>LON</t>
+        </is>
+      </c>
+      <c r="F262" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="B263" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C263" s="6" t="inlineStr">
@@ -15113,17 +15113,17 @@
       </c>
       <c r="D263" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E263" s="7" t="inlineStr">
         <is>
-          <t>LON</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F263" s="6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="B264" s="5" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C264" s="6" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="B265" s="5" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C265" s="6" t="inlineStr">
@@ -15182,7 +15182,7 @@
       </c>
       <c r="E265" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F265" s="6" t="inlineStr">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="B266" s="5" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C266" s="6" t="inlineStr">
@@ -15214,7 +15214,7 @@
       </c>
       <c r="E266" s="7" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>LON_TYP_ENUM</t>
         </is>
       </c>
       <c r="F266" s="6" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="B267" s="5" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>OAID</t>
         </is>
       </c>
       <c r="C267" s="6" t="inlineStr">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="E267" s="7" t="inlineStr">
         <is>
-          <t>LON_TYP_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F267" s="6" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="B268" s="5" t="inlineStr">
         <is>
-          <t>OAID</t>
+          <t>CNTRPRTY</t>
         </is>
       </c>
       <c r="C268" s="6" t="inlineStr">
@@ -15288,34 +15288,34 @@
       </c>
     </row>
     <row r="269" ht="36" customHeight="1">
-      <c r="A269" s="5" t="inlineStr">
-        <is>
-          <t>REF.LN</t>
-        </is>
-      </c>
-      <c r="B269" s="5" t="inlineStr">
-        <is>
-          <t>CNTRPRTY</t>
-        </is>
-      </c>
-      <c r="C269" s="6" t="inlineStr">
+      <c r="A269" s="8" t="inlineStr">
+        <is>
+          <t>REF.DBT</t>
+        </is>
+      </c>
+      <c r="B269" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C269" s="9" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D269" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E269" s="7" t="inlineStr">
-        <is>
-          <t>ORG</t>
-        </is>
-      </c>
-      <c r="F269" s="6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D269" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E269" s="10" t="inlineStr">
+        <is>
+          <t>DBT</t>
+        </is>
+      </c>
+      <c r="F269" s="9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -15327,7 +15327,7 @@
       </c>
       <c r="B270" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C270" s="9" t="inlineStr">
@@ -15337,17 +15337,17 @@
       </c>
       <c r="D270" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E270" s="10" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F270" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
       </c>
       <c r="B271" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C271" s="9" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="B272" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C272" s="9" t="inlineStr">
@@ -15406,7 +15406,7 @@
       </c>
       <c r="E272" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F272" s="9" t="inlineStr">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B273" s="8" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C273" s="9" t="inlineStr">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="E273" s="10" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>DBT_TYP_ENUM</t>
         </is>
       </c>
       <c r="F273" s="9" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="B274" s="8" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>ISSD_BY</t>
         </is>
       </c>
       <c r="C274" s="9" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="E274" s="10" t="inlineStr">
         <is>
-          <t>DBT_TYP_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F274" s="9" t="inlineStr">
@@ -15480,34 +15480,34 @@
       </c>
     </row>
     <row r="275" ht="36" customHeight="1">
-      <c r="A275" s="8" t="inlineStr">
-        <is>
-          <t>REF.DBT</t>
-        </is>
-      </c>
-      <c r="B275" s="8" t="inlineStr">
-        <is>
-          <t>ISSD_BY</t>
-        </is>
-      </c>
-      <c r="C275" s="9" t="inlineStr">
+      <c r="A275" s="5" t="inlineStr">
+        <is>
+          <t>REF.SHR</t>
+        </is>
+      </c>
+      <c r="B275" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C275" s="6" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D275" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E275" s="10" t="inlineStr">
-        <is>
-          <t>ORG</t>
-        </is>
-      </c>
-      <c r="F275" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D275" s="6" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E275" s="7" t="inlineStr">
+        <is>
+          <t>SHR</t>
+        </is>
+      </c>
+      <c r="F275" s="6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="B276" s="5" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C276" s="6" t="inlineStr">
@@ -15529,17 +15529,17 @@
       </c>
       <c r="D276" s="6" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E276" s="7" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F276" s="6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="B277" s="5" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C277" s="6" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B278" s="5" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C278" s="6" t="inlineStr">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="E278" s="7" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F278" s="6" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="B279" s="5" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C279" s="6" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="E279" s="7" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>SHR_ESA_TYP_ENUM</t>
         </is>
       </c>
       <c r="F279" s="6" t="inlineStr">
@@ -15647,7 +15647,7 @@
       </c>
       <c r="B280" s="5" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>ISSD_BY</t>
         </is>
       </c>
       <c r="C280" s="6" t="inlineStr">
@@ -15662,7 +15662,7 @@
       </c>
       <c r="E280" s="7" t="inlineStr">
         <is>
-          <t>SHR_ESA_TYP_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F280" s="6" t="inlineStr">
@@ -15672,34 +15672,34 @@
       </c>
     </row>
     <row r="281" ht="36" customHeight="1">
-      <c r="A281" s="5" t="inlineStr">
-        <is>
-          <t>REF.SHR</t>
-        </is>
-      </c>
-      <c r="B281" s="5" t="inlineStr">
-        <is>
-          <t>ISSD_BY</t>
-        </is>
-      </c>
-      <c r="C281" s="6" t="inlineStr">
+      <c r="A281" s="8" t="inlineStr">
+        <is>
+          <t>REF.DER</t>
+        </is>
+      </c>
+      <c r="B281" s="8" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C281" s="9" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="D281" s="6" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E281" s="7" t="inlineStr">
-        <is>
-          <t>ORG</t>
-        </is>
-      </c>
-      <c r="F281" s="6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
+      <c r="D281" s="9" t="inlineStr">
+        <is>
+          <t>DIMENSION</t>
+        </is>
+      </c>
+      <c r="E281" s="10" t="inlineStr">
+        <is>
+          <t>DER</t>
+        </is>
+      </c>
+      <c r="F281" s="9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="B282" s="8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DT_BRTH</t>
         </is>
       </c>
       <c r="C282" s="9" t="inlineStr">
@@ -15721,17 +15721,17 @@
       </c>
       <c r="D282" s="9" t="inlineStr">
         <is>
-          <t>DIMENSION</t>
+          <t>MEASURE</t>
         </is>
       </c>
       <c r="E282" s="10" t="inlineStr">
         <is>
-          <t>DER</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="F282" s="9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B283" s="8" t="inlineStr">
         <is>
-          <t>DT_BRTH</t>
+          <t>DT_CLS</t>
         </is>
       </c>
       <c r="C283" s="9" t="inlineStr">
@@ -15775,7 +15775,7 @@
       </c>
       <c r="B284" s="8" t="inlineStr">
         <is>
-          <t>DT_CLS</t>
+          <t>FISN</t>
         </is>
       </c>
       <c r="C284" s="9" t="inlineStr">
@@ -15790,7 +15790,7 @@
       </c>
       <c r="E284" s="10" t="inlineStr">
         <is>
-          <t>DATETIME</t>
+          <t>ASCIIU128</t>
         </is>
       </c>
       <c r="F284" s="9" t="inlineStr">
@@ -15807,7 +15807,7 @@
       </c>
       <c r="B285" s="8" t="inlineStr">
         <is>
-          <t>FISN</t>
+          <t>TCKR</t>
         </is>
       </c>
       <c r="C285" s="9" t="inlineStr">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="E285" s="10" t="inlineStr">
         <is>
-          <t>ASCIIU128</t>
+          <t>ASCIIU12</t>
         </is>
       </c>
       <c r="F285" s="9" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B286" s="8" t="inlineStr">
         <is>
-          <t>TCKR</t>
+          <t>TYP</t>
         </is>
       </c>
       <c r="C286" s="9" t="inlineStr">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="E286" s="10" t="inlineStr">
         <is>
-          <t>ASCIIU12</t>
+          <t>DRVTV_TYP_ENUM</t>
         </is>
       </c>
       <c r="F286" s="9" t="inlineStr">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="B287" s="8" t="inlineStr">
         <is>
-          <t>TYP</t>
+          <t>CRRNCY</t>
         </is>
       </c>
       <c r="C287" s="9" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="E287" s="10" t="inlineStr">
         <is>
-          <t>DRVTV_TYP_ENUM</t>
+          <t>GEN_CRRNCY_ENUM</t>
         </is>
       </c>
       <c r="F287" s="9" t="inlineStr">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B288" s="8" t="inlineStr">
         <is>
-          <t>CRRNCY</t>
+          <t>MRKT_CNTRPRTY</t>
         </is>
       </c>
       <c r="C288" s="9" t="inlineStr">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="E288" s="10" t="inlineStr">
         <is>
-          <t>GEN_CRRNCY_ENUM</t>
+          <t>GEN_MRKT_ENUM</t>
         </is>
       </c>
       <c r="F288" s="9" t="inlineStr">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="B289" s="8" t="inlineStr">
         <is>
-          <t>MRKT_CNTRPRTY</t>
+          <t>CNTRPRTY</t>
         </is>
       </c>
       <c r="C289" s="9" t="inlineStr">
@@ -15950,7 +15950,7 @@
       </c>
       <c r="E289" s="10" t="inlineStr">
         <is>
-          <t>GEN_MRKT_ENUM</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="F289" s="9" t="inlineStr">
@@ -15959,40 +15959,8 @@
         </is>
       </c>
     </row>
-    <row r="290" ht="36" customHeight="1">
-      <c r="A290" s="8" t="inlineStr">
-        <is>
-          <t>REF.DER</t>
-        </is>
-      </c>
-      <c r="B290" s="8" t="inlineStr">
-        <is>
-          <t>CNTRPRTY</t>
-        </is>
-      </c>
-      <c r="C290" s="9" t="inlineStr">
-        <is>
-          <t>REF</t>
-        </is>
-      </c>
-      <c r="D290" s="9" t="inlineStr">
-        <is>
-          <t>MEASURE</t>
-        </is>
-      </c>
-      <c r="E290" s="10" t="inlineStr">
-        <is>
-          <t>ORG</t>
-        </is>
-      </c>
-      <c r="F290" s="9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F290"/>
+  <autoFilter ref="A1:F289"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId2"/>
@@ -16112,7 +16080,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E117" r:id="rId116"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E118" r:id="rId117"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E119" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E121" r:id="rId119"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E122" r:id="rId120"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E123" r:id="rId121"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E124" r:id="rId122"/>
@@ -16136,7 +16104,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E142" r:id="rId140"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E143" r:id="rId141"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E144" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E145" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E146" r:id="rId143"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E147" r:id="rId144"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E148" r:id="rId145"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E149" r:id="rId146"/>
@@ -16280,7 +16248,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E287" r:id="rId284"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId285"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E289" r:id="rId286"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E290" r:id="rId287"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28465,7 +28432,7 @@
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>ΜΙΧ</t>
+          <t>MIX</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">

--- a/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
+++ b/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
@@ -29,7 +29,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR32" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU32" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR16" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="URL" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="URL256" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMAILSTR" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIII50" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ID" sheetId="26" state="visible" r:id="rId26"/>
@@ -7084,9 +7084,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F12" s="10" t="inlineStr">
@@ -7148,9 +7148,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E14" s="12" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F14" s="10" t="inlineStr">
@@ -7596,9 +7596,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E28" s="12" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+      <c r="E28" s="11" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F28" s="10" t="inlineStr">
@@ -7660,9 +7660,9 @@
           <t>MEASURE</t>
         </is>
       </c>
-      <c r="E30" s="12" t="inlineStr">
-        <is>
-          <t>NON_NEGATIVE_FLOAT</t>
+      <c r="E30" s="11" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
         </is>
       </c>
       <c r="F30" s="10" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="E117" s="11" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>URL256</t>
         </is>
       </c>
       <c r="F117" s="10" t="inlineStr">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="E142" s="11" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>URL256</t>
         </is>
       </c>
       <c r="F142" s="10" t="inlineStr">
@@ -15715,240 +15715,244 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" r:id="rId7"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" r:id="rId8"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E13" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E16" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E17" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E18" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E19" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E21" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E22" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E23" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E24" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E25" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E26" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E27" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E29" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E32" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E33" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E34" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E35" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E36" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E37" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E38" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E40" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E41" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E42" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E43" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E44" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E46" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E47" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E48" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E49" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E50" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E51" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E53" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E54" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E55" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E56" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E58" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E60" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E61" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E62" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E63" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E65" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E66" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E67" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E68" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E69" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E70" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E71" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E73" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E74" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E75" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E76" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E77" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E81" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E82" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E83" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E85" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E86" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E87" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E88" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E90" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E91" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E92" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E97" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E98" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E99" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E100" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E101" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E102" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E103" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E104" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E105" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E106" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E107" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E108" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E109" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E110" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E111" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E112" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E113" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E114" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E115" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E116" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E117" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E119" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E120" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E121" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E122" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E123" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E124" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E125" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E126" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E127" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E128" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E129" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E130" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E131" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E132" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E133" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E134" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E135" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E136" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E137" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E138" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E139" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E140" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E141" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E142" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E144" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E145" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E146" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E147" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E148" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E149" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E150" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E151" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E152" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E153" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E154" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E155" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E156" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E157" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E158" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E159" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E160" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E161" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E162" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E163" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E164" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E165" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E166" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E167" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E170" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E171" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E172" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E173" r:id="rId144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E174" r:id="rId145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E175" r:id="rId146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E176" r:id="rId147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E177" r:id="rId148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E178" r:id="rId149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E179" r:id="rId150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E180" r:id="rId151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E185" r:id="rId152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E186" r:id="rId153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E187" r:id="rId154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E189" r:id="rId155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E190" r:id="rId156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E191" r:id="rId157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E192" r:id="rId158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E193" r:id="rId159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E194" r:id="rId160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E195" r:id="rId161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E196" r:id="rId162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E197" r:id="rId163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E198" r:id="rId164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E199" r:id="rId165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E200" r:id="rId166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E201" r:id="rId167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E202" r:id="rId168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E203" r:id="rId169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E204" r:id="rId170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E206" r:id="rId171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E207" r:id="rId172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E208" r:id="rId173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E209" r:id="rId174"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E210" r:id="rId175"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E211" r:id="rId176"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E212" r:id="rId177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E213" r:id="rId178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E214" r:id="rId179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E215" r:id="rId180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E216" r:id="rId181"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E217" r:id="rId182"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E218" r:id="rId183"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E219" r:id="rId184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E220" r:id="rId185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E222" r:id="rId186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E223" r:id="rId187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E225" r:id="rId188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E226" r:id="rId189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E227" r:id="rId190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E228" r:id="rId191"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E229" r:id="rId192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E230" r:id="rId193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E231" r:id="rId194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E232" r:id="rId195"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E233" r:id="rId196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E234" r:id="rId197"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E235" r:id="rId198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E236" r:id="rId199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E237" r:id="rId200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E238" r:id="rId201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E239" r:id="rId202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E240" r:id="rId203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E241" r:id="rId204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E242" r:id="rId205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E243" r:id="rId206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E244" r:id="rId207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E245" r:id="rId208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E246" r:id="rId209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E247" r:id="rId210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E248" r:id="rId211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E249" r:id="rId212"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E250" r:id="rId213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E251" r:id="rId214"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E252" r:id="rId215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E253" r:id="rId216"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E254" r:id="rId217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E255" r:id="rId218"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E256" r:id="rId219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E257" r:id="rId220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E258" r:id="rId221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E259" r:id="rId222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E260" r:id="rId223"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E261" r:id="rId224"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E262" r:id="rId225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E263" r:id="rId226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E264" r:id="rId227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E265" r:id="rId228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E266" r:id="rId229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E267" r:id="rId230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E268" r:id="rId231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E269" r:id="rId232"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E270" r:id="rId233"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E271" r:id="rId234"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E272" r:id="rId235"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId236"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E275" r:id="rId238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E276" r:id="rId239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E278" r:id="rId240"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId241"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E280" r:id="rId242"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E12" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E13" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E16" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E17" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E18" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E19" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E21" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E22" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E23" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E24" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E25" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E26" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E27" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E28" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E29" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E30" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E32" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E33" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E34" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E35" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E36" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E37" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E38" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E40" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E41" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E42" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E43" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E44" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E46" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E47" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E48" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E49" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E50" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E51" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E53" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E54" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E55" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E56" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E58" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E60" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E61" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E62" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E63" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E65" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E66" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E67" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E68" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E69" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E70" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E71" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E73" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E74" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E75" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E76" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E77" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E81" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E82" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E83" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E85" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E86" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E87" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E88" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E90" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E91" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E92" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E97" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E98" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E99" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E100" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E101" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E102" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E103" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E104" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E105" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E106" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E107" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E108" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E109" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E110" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E111" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E112" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E113" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E114" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E115" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E116" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E117" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E119" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E120" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E121" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E122" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E123" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E124" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E125" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E126" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E127" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E128" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E129" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E130" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E131" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E132" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E133" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E134" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E135" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E136" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E137" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E138" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E139" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E140" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E141" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E142" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E144" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E145" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E146" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E147" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E148" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E149" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E150" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E151" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E152" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E153" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E154" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E155" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E156" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E157" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E158" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E159" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E160" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E161" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E162" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E163" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E164" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E165" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E166" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E167" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E170" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E171" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E172" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E173" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E174" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E175" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E176" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E177" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E178" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E179" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E180" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E185" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E186" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E187" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E189" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E190" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E191" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E192" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E193" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E194" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E195" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E196" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E197" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E198" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E199" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E200" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E201" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E202" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E203" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E204" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E206" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E207" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E208" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E209" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E210" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E211" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E212" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E213" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E214" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E215" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E216" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E217" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E218" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E219" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E220" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E222" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E223" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E225" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E226" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E227" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E228" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E229" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E230" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E231" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E232" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E233" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E234" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E235" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E236" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E237" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E238" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E239" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E240" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E241" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E242" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E243" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E244" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E245" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E246" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E247" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E248" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E249" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E250" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E251" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E252" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E253" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E254" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E255" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E256" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E257" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E258" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E259" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E260" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E261" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E262" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E263" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E264" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E265" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E266" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E267" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E268" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E269" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E270" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E271" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E272" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E275" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E276" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E278" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E280" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId247"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17622,7 +17626,7 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: Url
+        type: URL256
         </t>
         </is>
       </c>
@@ -77264,7 +77268,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Παρρέκλιση IFDAT τύπου Α</t>
+          <t>Παρέκκλιση IFDAT τύπου Α</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -77280,12 +77284,12 @@
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>Β</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>Παρρέκλιση IFDAT τύπου Β</t>
+          <t>Παρέκκλιση IFDAT τύπου Β</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
